--- a/ETF/IN_WORK/guru_files/AMLP.xlsx
+++ b/ETF/IN_WORK/guru_files/AMLP.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:WV5"/>
+  <dimension ref="A1:XK5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1022,6 +1022,21 @@
     <col min="618" max="618" width="10.83203125" customWidth="1"/>
     <col min="619" max="619" width="10.83203125" customWidth="1"/>
     <col min="620" max="620" width="10.83203125" customWidth="1"/>
+    <col min="621" max="621" width="10.83203125" customWidth="1"/>
+    <col min="622" max="622" width="10.83203125" customWidth="1"/>
+    <col min="623" max="623" width="10.83203125" customWidth="1"/>
+    <col min="624" max="624" width="10.83203125" customWidth="1"/>
+    <col min="625" max="625" width="10.83203125" customWidth="1"/>
+    <col min="626" max="626" width="10.83203125" customWidth="1"/>
+    <col min="627" max="627" width="10.83203125" customWidth="1"/>
+    <col min="628" max="628" width="10.83203125" customWidth="1"/>
+    <col min="629" max="629" width="10.83203125" customWidth="1"/>
+    <col min="630" max="630" width="10.83203125" customWidth="1"/>
+    <col min="631" max="631" width="10.83203125" customWidth="1"/>
+    <col min="632" max="632" width="10.83203125" customWidth="1"/>
+    <col min="633" max="633" width="10.83203125" customWidth="1"/>
+    <col min="634" max="634" width="10.83203125" customWidth="1"/>
+    <col min="635" max="635" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1029,7 +1044,7 @@
         <v>Downloaded from https://www.gurufocus.com</v>
       </c>
       <c r="B1" t="str">
-        <v>2023-06-21</v>
+        <v>2023-08-10</v>
       </c>
       <c r="C1" t="str">
         <v/>
@@ -2883,6 +2898,51 @@
         <v/>
       </c>
       <c r="WV1" t="str">
+        <v/>
+      </c>
+      <c r="WW1" t="str">
+        <v/>
+      </c>
+      <c r="WX1" t="str">
+        <v/>
+      </c>
+      <c r="WY1" t="str">
+        <v/>
+      </c>
+      <c r="WZ1" t="str">
+        <v/>
+      </c>
+      <c r="XA1" t="str">
+        <v/>
+      </c>
+      <c r="XB1" t="str">
+        <v/>
+      </c>
+      <c r="XC1" t="str">
+        <v/>
+      </c>
+      <c r="XD1" t="str">
+        <v/>
+      </c>
+      <c r="XE1" t="str">
+        <v/>
+      </c>
+      <c r="XF1" t="str">
+        <v/>
+      </c>
+      <c r="XG1" t="str">
+        <v/>
+      </c>
+      <c r="XH1" t="str">
+        <v/>
+      </c>
+      <c r="XI1" t="str">
+        <v/>
+      </c>
+      <c r="XJ1" t="str">
+        <v/>
+      </c>
+      <c r="XK1" t="str">
         <v/>
       </c>
     </row>
@@ -2891,7 +2951,7 @@
         <v>File Name</v>
       </c>
       <c r="B2" t="str">
-        <v>Chart Data 2023-06-21 13:55:52</v>
+        <v>Chart Data 2023-08-10 13:30:39</v>
       </c>
       <c r="C2" t="str">
         <v/>
@@ -4745,6 +4805,51 @@
         <v/>
       </c>
       <c r="WV2" t="str">
+        <v/>
+      </c>
+      <c r="WW2" t="str">
+        <v/>
+      </c>
+      <c r="WX2" t="str">
+        <v/>
+      </c>
+      <c r="WY2" t="str">
+        <v/>
+      </c>
+      <c r="WZ2" t="str">
+        <v/>
+      </c>
+      <c r="XA2" t="str">
+        <v/>
+      </c>
+      <c r="XB2" t="str">
+        <v/>
+      </c>
+      <c r="XC2" t="str">
+        <v/>
+      </c>
+      <c r="XD2" t="str">
+        <v/>
+      </c>
+      <c r="XE2" t="str">
+        <v/>
+      </c>
+      <c r="XF2" t="str">
+        <v/>
+      </c>
+      <c r="XG2" t="str">
+        <v/>
+      </c>
+      <c r="XH2" t="str">
+        <v/>
+      </c>
+      <c r="XI2" t="str">
+        <v/>
+      </c>
+      <c r="XJ2" t="str">
+        <v/>
+      </c>
+      <c r="XK2" t="str">
         <v/>
       </c>
     </row>
@@ -6609,1866 +6714,1956 @@
       <c r="WV3" t="str">
         <v/>
       </c>
+      <c r="WW3" t="str">
+        <v/>
+      </c>
+      <c r="WX3" t="str">
+        <v/>
+      </c>
+      <c r="WY3" t="str">
+        <v/>
+      </c>
+      <c r="WZ3" t="str">
+        <v/>
+      </c>
+      <c r="XA3" t="str">
+        <v/>
+      </c>
+      <c r="XB3" t="str">
+        <v/>
+      </c>
+      <c r="XC3" t="str">
+        <v/>
+      </c>
+      <c r="XD3" t="str">
+        <v/>
+      </c>
+      <c r="XE3" t="str">
+        <v/>
+      </c>
+      <c r="XF3" t="str">
+        <v/>
+      </c>
+      <c r="XG3" t="str">
+        <v/>
+      </c>
+      <c r="XH3" t="str">
+        <v/>
+      </c>
+      <c r="XI3" t="str">
+        <v/>
+      </c>
+      <c r="XJ3" t="str">
+        <v/>
+      </c>
+      <c r="XK3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v/>
       </c>
       <c r="B4" t="str">
+        <v>2023-08-09</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2023-08-04</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2023-08-02</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2023-07-28</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2023-07-26</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2023-07-21</v>
+      </c>
+      <c r="H4" t="str">
+        <v>2023-07-19</v>
+      </c>
+      <c r="I4" t="str">
+        <v>2023-07-14</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2023-07-12</v>
+      </c>
+      <c r="K4" t="str">
+        <v>2023-07-07</v>
+      </c>
+      <c r="L4" t="str">
+        <v>2023-07-05</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2023-06-30</v>
+      </c>
+      <c r="N4" t="str">
+        <v>2023-06-28</v>
+      </c>
+      <c r="O4" t="str">
+        <v>2023-06-23</v>
+      </c>
+      <c r="P4" t="str">
+        <v>2023-06-21</v>
+      </c>
+      <c r="Q4" t="str">
         <v>2023-06-16</v>
       </c>
-      <c r="C4" t="str">
+      <c r="R4" t="str">
         <v>2023-06-14</v>
       </c>
-      <c r="D4" t="str">
+      <c r="S4" t="str">
         <v>2023-06-09</v>
       </c>
-      <c r="E4" t="str">
+      <c r="T4" t="str">
         <v>2023-06-07</v>
       </c>
-      <c r="F4" t="str">
+      <c r="U4" t="str">
         <v>2023-06-02</v>
       </c>
-      <c r="G4" t="str">
+      <c r="V4" t="str">
         <v>2023-05-31</v>
       </c>
-      <c r="H4" t="str">
+      <c r="W4" t="str">
         <v>2023-05-26</v>
       </c>
-      <c r="I4" t="str">
+      <c r="X4" t="str">
         <v>2023-05-24</v>
       </c>
-      <c r="J4" t="str">
+      <c r="Y4" t="str">
         <v>2023-05-19</v>
       </c>
-      <c r="K4" t="str">
+      <c r="Z4" t="str">
         <v>2023-05-17</v>
       </c>
-      <c r="L4" t="str">
+      <c r="AA4" t="str">
         <v>2023-05-12</v>
       </c>
-      <c r="M4" t="str">
+      <c r="AB4" t="str">
         <v>2023-05-10</v>
       </c>
-      <c r="N4" t="str">
+      <c r="AC4" t="str">
         <v>2023-05-05</v>
       </c>
-      <c r="O4" t="str">
+      <c r="AD4" t="str">
         <v>2023-05-03</v>
       </c>
-      <c r="P4" t="str">
+      <c r="AE4" t="str">
         <v>2023-04-28</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="AF4" t="str">
         <v>2023-04-26</v>
       </c>
-      <c r="R4" t="str">
+      <c r="AG4" t="str">
         <v>2023-04-21</v>
       </c>
-      <c r="S4" t="str">
+      <c r="AH4" t="str">
         <v>2023-04-19</v>
       </c>
-      <c r="T4" t="str">
+      <c r="AI4" t="str">
         <v>2023-04-14</v>
       </c>
-      <c r="U4" t="str">
+      <c r="AJ4" t="str">
         <v>2023-04-12</v>
       </c>
-      <c r="V4" t="str">
+      <c r="AK4" t="str">
         <v>2023-04-07</v>
       </c>
-      <c r="W4" t="str">
+      <c r="AL4" t="str">
         <v>2023-04-05</v>
       </c>
-      <c r="X4" t="str">
+      <c r="AM4" t="str">
         <v>2023-03-31</v>
       </c>
-      <c r="Y4" t="str">
+      <c r="AN4" t="str">
         <v>2023-03-29</v>
       </c>
-      <c r="Z4" t="str">
+      <c r="AO4" t="str">
         <v>2023-03-24</v>
       </c>
-      <c r="AA4" t="str">
+      <c r="AP4" t="str">
         <v>2023-03-22</v>
       </c>
-      <c r="AB4" t="str">
+      <c r="AQ4" t="str">
         <v>2023-03-17</v>
       </c>
-      <c r="AC4" t="str">
+      <c r="AR4" t="str">
         <v>2023-03-15</v>
       </c>
-      <c r="AD4" t="str">
+      <c r="AS4" t="str">
         <v>2023-03-10</v>
       </c>
-      <c r="AE4" t="str">
+      <c r="AT4" t="str">
         <v>2023-03-08</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="AU4" t="str">
         <v>2023-03-03</v>
       </c>
-      <c r="AG4" t="str">
+      <c r="AV4" t="str">
         <v>2023-03-01</v>
       </c>
-      <c r="AH4" t="str">
+      <c r="AW4" t="str">
         <v>2023-02-24</v>
       </c>
-      <c r="AI4" t="str">
+      <c r="AX4" t="str">
         <v>2023-02-22</v>
       </c>
-      <c r="AJ4" t="str">
+      <c r="AY4" t="str">
         <v>2023-02-17</v>
       </c>
-      <c r="AK4" t="str">
+      <c r="AZ4" t="str">
         <v>2023-02-15</v>
       </c>
-      <c r="AL4" t="str">
+      <c r="BA4" t="str">
         <v>2023-02-10</v>
       </c>
-      <c r="AM4" t="str">
+      <c r="BB4" t="str">
         <v>2023-02-08</v>
       </c>
-      <c r="AN4" t="str">
+      <c r="BC4" t="str">
         <v>2023-02-03</v>
       </c>
-      <c r="AO4" t="str">
+      <c r="BD4" t="str">
         <v>2023-02-01</v>
       </c>
-      <c r="AP4" t="str">
+      <c r="BE4" t="str">
         <v>2023-01-27</v>
       </c>
-      <c r="AQ4" t="str">
+      <c r="BF4" t="str">
         <v>2023-01-25</v>
       </c>
-      <c r="AR4" t="str">
+      <c r="BG4" t="str">
         <v>2023-01-20</v>
       </c>
-      <c r="AS4" t="str">
+      <c r="BH4" t="str">
         <v>2023-01-18</v>
       </c>
-      <c r="AT4" t="str">
+      <c r="BI4" t="str">
         <v>2023-01-13</v>
       </c>
-      <c r="AU4" t="str">
+      <c r="BJ4" t="str">
         <v>2023-01-11</v>
       </c>
-      <c r="AV4" t="str">
+      <c r="BK4" t="str">
         <v>2023-01-06</v>
       </c>
-      <c r="AW4" t="str">
+      <c r="BL4" t="str">
         <v>2023-01-04</v>
       </c>
-      <c r="AX4" t="str">
+      <c r="BM4" t="str">
         <v>2022-12-30</v>
       </c>
-      <c r="AY4" t="str">
+      <c r="BN4" t="str">
         <v>2022-12-28</v>
       </c>
-      <c r="AZ4" t="str">
+      <c r="BO4" t="str">
         <v>2022-12-23</v>
       </c>
-      <c r="BA4" t="str">
+      <c r="BP4" t="str">
         <v>2022-12-21</v>
       </c>
-      <c r="BB4" t="str">
+      <c r="BQ4" t="str">
         <v>2022-12-16</v>
       </c>
-      <c r="BC4" t="str">
+      <c r="BR4" t="str">
         <v>2022-12-14</v>
       </c>
-      <c r="BD4" t="str">
+      <c r="BS4" t="str">
         <v>2022-12-09</v>
       </c>
-      <c r="BE4" t="str">
+      <c r="BT4" t="str">
         <v>2022-12-07</v>
       </c>
-      <c r="BF4" t="str">
+      <c r="BU4" t="str">
         <v>2022-12-02</v>
       </c>
-      <c r="BG4" t="str">
+      <c r="BV4" t="str">
         <v>2022-11-30</v>
       </c>
-      <c r="BH4" t="str">
+      <c r="BW4" t="str">
         <v>2022-11-25</v>
       </c>
-      <c r="BI4" t="str">
+      <c r="BX4" t="str">
         <v>2022-11-23</v>
       </c>
-      <c r="BJ4" t="str">
+      <c r="BY4" t="str">
         <v>2022-11-18</v>
       </c>
-      <c r="BK4" t="str">
+      <c r="BZ4" t="str">
         <v>2022-11-16</v>
       </c>
-      <c r="BL4" t="str">
+      <c r="CA4" t="str">
         <v>2022-11-11</v>
       </c>
-      <c r="BM4" t="str">
+      <c r="CB4" t="str">
         <v>2022-11-09</v>
       </c>
-      <c r="BN4" t="str">
+      <c r="CC4" t="str">
         <v>2022-11-04</v>
       </c>
-      <c r="BO4" t="str">
+      <c r="CD4" t="str">
         <v>2022-11-02</v>
       </c>
-      <c r="BP4" t="str">
+      <c r="CE4" t="str">
         <v>2022-10-28</v>
       </c>
-      <c r="BQ4" t="str">
+      <c r="CF4" t="str">
         <v>2022-10-26</v>
       </c>
-      <c r="BR4" t="str">
+      <c r="CG4" t="str">
         <v>2022-10-21</v>
       </c>
-      <c r="BS4" t="str">
+      <c r="CH4" t="str">
         <v>2022-10-19</v>
       </c>
-      <c r="BT4" t="str">
+      <c r="CI4" t="str">
         <v>2022-10-14</v>
       </c>
-      <c r="BU4" t="str">
+      <c r="CJ4" t="str">
         <v>2022-10-12</v>
       </c>
-      <c r="BV4" t="str">
+      <c r="CK4" t="str">
         <v>2022-10-07</v>
       </c>
-      <c r="BW4" t="str">
+      <c r="CL4" t="str">
         <v>2022-10-05</v>
       </c>
-      <c r="BX4" t="str">
+      <c r="CM4" t="str">
         <v>2022-09-30</v>
       </c>
-      <c r="BY4" t="str">
+      <c r="CN4" t="str">
         <v>2022-09-28</v>
       </c>
-      <c r="BZ4" t="str">
+      <c r="CO4" t="str">
         <v>2022-09-23</v>
       </c>
-      <c r="CA4" t="str">
+      <c r="CP4" t="str">
         <v>2022-09-21</v>
       </c>
-      <c r="CB4" t="str">
+      <c r="CQ4" t="str">
         <v>2022-09-16</v>
       </c>
-      <c r="CC4" t="str">
+      <c r="CR4" t="str">
         <v>2022-09-14</v>
       </c>
-      <c r="CD4" t="str">
+      <c r="CS4" t="str">
         <v>2022-09-09</v>
       </c>
-      <c r="CE4" t="str">
+      <c r="CT4" t="str">
         <v>2022-09-07</v>
       </c>
-      <c r="CF4" t="str">
+      <c r="CU4" t="str">
         <v>2022-09-02</v>
       </c>
-      <c r="CG4" t="str">
+      <c r="CV4" t="str">
         <v>2022-08-31</v>
       </c>
-      <c r="CH4" t="str">
+      <c r="CW4" t="str">
         <v>2022-08-26</v>
       </c>
-      <c r="CI4" t="str">
+      <c r="CX4" t="str">
         <v>2022-08-24</v>
       </c>
-      <c r="CJ4" t="str">
+      <c r="CY4" t="str">
         <v>2022-08-19</v>
       </c>
-      <c r="CK4" t="str">
+      <c r="CZ4" t="str">
         <v>2022-08-17</v>
       </c>
-      <c r="CL4" t="str">
+      <c r="DA4" t="str">
         <v>2022-08-12</v>
       </c>
-      <c r="CM4" t="str">
+      <c r="DB4" t="str">
         <v>2022-08-10</v>
       </c>
-      <c r="CN4" t="str">
+      <c r="DC4" t="str">
         <v>2022-08-05</v>
       </c>
-      <c r="CO4" t="str">
+      <c r="DD4" t="str">
         <v>2022-08-03</v>
       </c>
-      <c r="CP4" t="str">
+      <c r="DE4" t="str">
         <v>2022-07-29</v>
       </c>
-      <c r="CQ4" t="str">
+      <c r="DF4" t="str">
         <v>2022-07-27</v>
       </c>
-      <c r="CR4" t="str">
+      <c r="DG4" t="str">
         <v>2022-07-22</v>
       </c>
-      <c r="CS4" t="str">
+      <c r="DH4" t="str">
         <v>2022-07-20</v>
       </c>
-      <c r="CT4" t="str">
+      <c r="DI4" t="str">
         <v>2022-07-15</v>
       </c>
-      <c r="CU4" t="str">
+      <c r="DJ4" t="str">
         <v>2022-07-13</v>
       </c>
-      <c r="CV4" t="str">
+      <c r="DK4" t="str">
         <v>2022-07-08</v>
       </c>
-      <c r="CW4" t="str">
+      <c r="DL4" t="str">
         <v>2022-07-06</v>
       </c>
-      <c r="CX4" t="str">
+      <c r="DM4" t="str">
         <v>2022-07-01</v>
       </c>
-      <c r="CY4" t="str">
+      <c r="DN4" t="str">
         <v>2022-06-29</v>
       </c>
-      <c r="CZ4" t="str">
+      <c r="DO4" t="str">
         <v>2022-06-24</v>
       </c>
-      <c r="DA4" t="str">
+      <c r="DP4" t="str">
         <v>2022-06-22</v>
       </c>
-      <c r="DB4" t="str">
+      <c r="DQ4" t="str">
         <v>2022-06-17</v>
       </c>
-      <c r="DC4" t="str">
+      <c r="DR4" t="str">
         <v>2022-06-15</v>
       </c>
-      <c r="DD4" t="str">
+      <c r="DS4" t="str">
         <v>2022-06-10</v>
       </c>
-      <c r="DE4" t="str">
+      <c r="DT4" t="str">
         <v>2022-06-08</v>
       </c>
-      <c r="DF4" t="str">
+      <c r="DU4" t="str">
         <v>2022-06-03</v>
       </c>
-      <c r="DG4" t="str">
+      <c r="DV4" t="str">
         <v>2022-06-01</v>
       </c>
-      <c r="DH4" t="str">
+      <c r="DW4" t="str">
         <v>2022-05-25</v>
       </c>
-      <c r="DI4" t="str">
+      <c r="DX4" t="str">
         <v>2022-05-20</v>
       </c>
-      <c r="DJ4" t="str">
+      <c r="DY4" t="str">
         <v>2022-05-18</v>
       </c>
-      <c r="DK4" t="str">
+      <c r="DZ4" t="str">
         <v>2022-05-13</v>
       </c>
-      <c r="DL4" t="str">
+      <c r="EA4" t="str">
         <v>2022-05-11</v>
       </c>
-      <c r="DM4" t="str">
+      <c r="EB4" t="str">
         <v>2022-05-06</v>
       </c>
-      <c r="DN4" t="str">
+      <c r="EC4" t="str">
         <v>2022-05-04</v>
       </c>
-      <c r="DO4" t="str">
+      <c r="ED4" t="str">
         <v>2022-04-29</v>
       </c>
-      <c r="DP4" t="str">
+      <c r="EE4" t="str">
         <v>2022-04-27</v>
       </c>
-      <c r="DQ4" t="str">
+      <c r="EF4" t="str">
         <v>2022-04-22</v>
       </c>
-      <c r="DR4" t="str">
+      <c r="EG4" t="str">
         <v>2022-04-20</v>
       </c>
-      <c r="DS4" t="str">
+      <c r="EH4" t="str">
         <v>2022-04-15</v>
       </c>
-      <c r="DT4" t="str">
+      <c r="EI4" t="str">
         <v>2022-04-13</v>
       </c>
-      <c r="DU4" t="str">
+      <c r="EJ4" t="str">
         <v>2022-04-08</v>
       </c>
-      <c r="DV4" t="str">
+      <c r="EK4" t="str">
         <v>2022-04-06</v>
       </c>
-      <c r="DW4" t="str">
+      <c r="EL4" t="str">
         <v>2022-04-01</v>
       </c>
-      <c r="DX4" t="str">
+      <c r="EM4" t="str">
         <v>2022-03-30</v>
       </c>
-      <c r="DY4" t="str">
+      <c r="EN4" t="str">
         <v>2022-03-25</v>
       </c>
-      <c r="DZ4" t="str">
+      <c r="EO4" t="str">
         <v>2022-03-23</v>
       </c>
-      <c r="EA4" t="str">
+      <c r="EP4" t="str">
         <v>2022-03-18</v>
       </c>
-      <c r="EB4" t="str">
+      <c r="EQ4" t="str">
         <v>2022-03-16</v>
       </c>
-      <c r="EC4" t="str">
+      <c r="ER4" t="str">
         <v>2022-03-11</v>
       </c>
-      <c r="ED4" t="str">
+      <c r="ES4" t="str">
         <v>2022-03-09</v>
       </c>
-      <c r="EE4" t="str">
+      <c r="ET4" t="str">
         <v>2022-03-04</v>
       </c>
-      <c r="EF4" t="str">
+      <c r="EU4" t="str">
         <v>2022-03-02</v>
       </c>
-      <c r="EG4" t="str">
+      <c r="EV4" t="str">
         <v>2022-02-25</v>
       </c>
-      <c r="EH4" t="str">
+      <c r="EW4" t="str">
         <v>2022-02-23</v>
       </c>
-      <c r="EI4" t="str">
+      <c r="EX4" t="str">
         <v>2022-02-18</v>
       </c>
-      <c r="EJ4" t="str">
+      <c r="EY4" t="str">
         <v>2022-02-16</v>
       </c>
-      <c r="EK4" t="str">
+      <c r="EZ4" t="str">
         <v>2022-02-11</v>
       </c>
-      <c r="EL4" t="str">
+      <c r="FA4" t="str">
         <v>2022-02-09</v>
       </c>
-      <c r="EM4" t="str">
+      <c r="FB4" t="str">
         <v>2022-02-04</v>
       </c>
-      <c r="EN4" t="str">
+      <c r="FC4" t="str">
         <v>2022-02-02</v>
       </c>
-      <c r="EO4" t="str">
+      <c r="FD4" t="str">
         <v>2022-01-28</v>
       </c>
-      <c r="EP4" t="str">
+      <c r="FE4" t="str">
         <v>2022-01-26</v>
       </c>
-      <c r="EQ4" t="str">
+      <c r="FF4" t="str">
         <v>2022-01-21</v>
       </c>
-      <c r="ER4" t="str">
+      <c r="FG4" t="str">
         <v>2022-01-19</v>
       </c>
-      <c r="ES4" t="str">
+      <c r="FH4" t="str">
         <v>2022-01-14</v>
       </c>
-      <c r="ET4" t="str">
+      <c r="FI4" t="str">
         <v>2022-01-12</v>
       </c>
-      <c r="EU4" t="str">
+      <c r="FJ4" t="str">
         <v>2022-01-07</v>
       </c>
-      <c r="EV4" t="str">
+      <c r="FK4" t="str">
         <v>2022-01-05</v>
       </c>
-      <c r="EW4" t="str">
+      <c r="FL4" t="str">
         <v>2021-12-31</v>
       </c>
-      <c r="EX4" t="str">
+      <c r="FM4" t="str">
         <v>2021-12-29</v>
       </c>
-      <c r="EY4" t="str">
+      <c r="FN4" t="str">
         <v>2021-12-24</v>
       </c>
-      <c r="EZ4" t="str">
+      <c r="FO4" t="str">
         <v>2021-12-22</v>
       </c>
-      <c r="FA4" t="str">
+      <c r="FP4" t="str">
         <v>2021-12-17</v>
       </c>
-      <c r="FB4" t="str">
+      <c r="FQ4" t="str">
         <v>2021-12-15</v>
       </c>
-      <c r="FC4" t="str">
+      <c r="FR4" t="str">
         <v>2021-12-10</v>
       </c>
-      <c r="FD4" t="str">
+      <c r="FS4" t="str">
         <v>2021-12-08</v>
       </c>
-      <c r="FE4" t="str">
+      <c r="FT4" t="str">
         <v>2021-12-03</v>
       </c>
-      <c r="FF4" t="str">
+      <c r="FU4" t="str">
         <v>2021-12-01</v>
       </c>
-      <c r="FG4" t="str">
+      <c r="FV4" t="str">
         <v>2021-11-26</v>
       </c>
-      <c r="FH4" t="str">
+      <c r="FW4" t="str">
         <v>2021-11-24</v>
       </c>
-      <c r="FI4" t="str">
+      <c r="FX4" t="str">
         <v>2021-11-19</v>
       </c>
-      <c r="FJ4" t="str">
+      <c r="FY4" t="str">
         <v>2021-11-17</v>
       </c>
-      <c r="FK4" t="str">
+      <c r="FZ4" t="str">
         <v>2021-11-12</v>
       </c>
-      <c r="FL4" t="str">
+      <c r="GA4" t="str">
         <v>2021-11-10</v>
       </c>
-      <c r="FM4" t="str">
+      <c r="GB4" t="str">
         <v>2021-11-05</v>
       </c>
-      <c r="FN4" t="str">
+      <c r="GC4" t="str">
         <v>2021-11-03</v>
       </c>
-      <c r="FO4" t="str">
+      <c r="GD4" t="str">
         <v>2021-10-29</v>
       </c>
-      <c r="FP4" t="str">
+      <c r="GE4" t="str">
         <v>2021-10-27</v>
       </c>
-      <c r="FQ4" t="str">
+      <c r="GF4" t="str">
         <v>2021-10-22</v>
       </c>
-      <c r="FR4" t="str">
+      <c r="GG4" t="str">
         <v>2021-10-20</v>
       </c>
-      <c r="FS4" t="str">
+      <c r="GH4" t="str">
         <v>2021-10-15</v>
       </c>
-      <c r="FT4" t="str">
+      <c r="GI4" t="str">
         <v>2021-10-13</v>
       </c>
-      <c r="FU4" t="str">
+      <c r="GJ4" t="str">
         <v>2021-10-08</v>
       </c>
-      <c r="FV4" t="str">
+      <c r="GK4" t="str">
         <v>2021-10-06</v>
       </c>
-      <c r="FW4" t="str">
+      <c r="GL4" t="str">
         <v>2021-10-01</v>
       </c>
-      <c r="FX4" t="str">
+      <c r="GM4" t="str">
         <v>2021-09-29</v>
       </c>
-      <c r="FY4" t="str">
+      <c r="GN4" t="str">
         <v>2021-09-24</v>
       </c>
-      <c r="FZ4" t="str">
+      <c r="GO4" t="str">
         <v>2021-09-22</v>
       </c>
-      <c r="GA4" t="str">
+      <c r="GP4" t="str">
         <v>2021-09-17</v>
       </c>
-      <c r="GB4" t="str">
+      <c r="GQ4" t="str">
         <v>2021-09-15</v>
       </c>
-      <c r="GC4" t="str">
+      <c r="GR4" t="str">
         <v>2021-09-10</v>
       </c>
-      <c r="GD4" t="str">
+      <c r="GS4" t="str">
         <v>2021-09-08</v>
       </c>
-      <c r="GE4" t="str">
+      <c r="GT4" t="str">
         <v>2021-09-03</v>
       </c>
-      <c r="GF4" t="str">
+      <c r="GU4" t="str">
         <v>2021-09-01</v>
       </c>
-      <c r="GG4" t="str">
+      <c r="GV4" t="str">
         <v>2021-08-27</v>
       </c>
-      <c r="GH4" t="str">
+      <c r="GW4" t="str">
         <v>2021-08-25</v>
       </c>
-      <c r="GI4" t="str">
+      <c r="GX4" t="str">
         <v>2021-08-20</v>
       </c>
-      <c r="GJ4" t="str">
+      <c r="GY4" t="str">
         <v>2021-08-18</v>
       </c>
-      <c r="GK4" t="str">
+      <c r="GZ4" t="str">
         <v>2021-08-13</v>
       </c>
-      <c r="GL4" t="str">
+      <c r="HA4" t="str">
         <v>2021-08-11</v>
       </c>
-      <c r="GM4" t="str">
+      <c r="HB4" t="str">
         <v>2021-08-06</v>
       </c>
-      <c r="GN4" t="str">
+      <c r="HC4" t="str">
         <v>2021-08-04</v>
       </c>
-      <c r="GO4" t="str">
+      <c r="HD4" t="str">
         <v>2021-07-30</v>
       </c>
-      <c r="GP4" t="str">
+      <c r="HE4" t="str">
         <v>2021-07-28</v>
       </c>
-      <c r="GQ4" t="str">
+      <c r="HF4" t="str">
         <v>2021-07-23</v>
       </c>
-      <c r="GR4" t="str">
+      <c r="HG4" t="str">
         <v>2021-07-21</v>
       </c>
-      <c r="GS4" t="str">
+      <c r="HH4" t="str">
         <v>2021-07-16</v>
       </c>
-      <c r="GT4" t="str">
+      <c r="HI4" t="str">
         <v>2021-07-14</v>
       </c>
-      <c r="GU4" t="str">
+      <c r="HJ4" t="str">
         <v>2021-07-09</v>
       </c>
-      <c r="GV4" t="str">
+      <c r="HK4" t="str">
         <v>2021-07-07</v>
       </c>
-      <c r="GW4" t="str">
+      <c r="HL4" t="str">
         <v>2021-07-02</v>
       </c>
-      <c r="GX4" t="str">
+      <c r="HM4" t="str">
         <v>2021-06-30</v>
       </c>
-      <c r="GY4" t="str">
+      <c r="HN4" t="str">
         <v>2021-06-25</v>
       </c>
-      <c r="GZ4" t="str">
+      <c r="HO4" t="str">
         <v>2021-06-23</v>
       </c>
-      <c r="HA4" t="str">
+      <c r="HP4" t="str">
         <v>2021-06-18</v>
       </c>
-      <c r="HB4" t="str">
+      <c r="HQ4" t="str">
         <v>2021-06-16</v>
       </c>
-      <c r="HC4" t="str">
+      <c r="HR4" t="str">
         <v>2021-06-11</v>
       </c>
-      <c r="HD4" t="str">
+      <c r="HS4" t="str">
         <v>2021-06-09</v>
       </c>
-      <c r="HE4" t="str">
+      <c r="HT4" t="str">
         <v>2021-06-04</v>
       </c>
-      <c r="HF4" t="str">
+      <c r="HU4" t="str">
         <v>2021-06-02</v>
       </c>
-      <c r="HG4" t="str">
+      <c r="HV4" t="str">
         <v>2021-05-28</v>
       </c>
-      <c r="HH4" t="str">
+      <c r="HW4" t="str">
         <v>2021-05-26</v>
       </c>
-      <c r="HI4" t="str">
+      <c r="HX4" t="str">
         <v>2021-05-21</v>
       </c>
-      <c r="HJ4" t="str">
+      <c r="HY4" t="str">
         <v>2021-05-19</v>
       </c>
-      <c r="HK4" t="str">
+      <c r="HZ4" t="str">
         <v>2021-05-14</v>
       </c>
-      <c r="HL4" t="str">
+      <c r="IA4" t="str">
         <v>2021-05-12</v>
       </c>
-      <c r="HM4" t="str">
+      <c r="IB4" t="str">
         <v>2021-05-07</v>
       </c>
-      <c r="HN4" t="str">
+      <c r="IC4" t="str">
         <v>2021-05-05</v>
       </c>
-      <c r="HO4" t="str">
+      <c r="ID4" t="str">
         <v>2021-04-30</v>
       </c>
-      <c r="HP4" t="str">
+      <c r="IE4" t="str">
         <v>2021-04-28</v>
       </c>
-      <c r="HQ4" t="str">
+      <c r="IF4" t="str">
         <v>2021-04-23</v>
       </c>
-      <c r="HR4" t="str">
+      <c r="IG4" t="str">
         <v>2021-04-21</v>
       </c>
-      <c r="HS4" t="str">
+      <c r="IH4" t="str">
         <v>2021-04-16</v>
       </c>
-      <c r="HT4" t="str">
+      <c r="II4" t="str">
         <v>2021-04-14</v>
       </c>
-      <c r="HU4" t="str">
+      <c r="IJ4" t="str">
         <v>2021-04-09</v>
       </c>
-      <c r="HV4" t="str">
+      <c r="IK4" t="str">
         <v>2021-04-07</v>
       </c>
-      <c r="HW4" t="str">
+      <c r="IL4" t="str">
         <v>2021-04-02</v>
       </c>
-      <c r="HX4" t="str">
+      <c r="IM4" t="str">
         <v>2021-03-31</v>
       </c>
-      <c r="HY4" t="str">
+      <c r="IN4" t="str">
         <v>2021-03-26</v>
       </c>
-      <c r="HZ4" t="str">
+      <c r="IO4" t="str">
         <v>2021-03-24</v>
       </c>
-      <c r="IA4" t="str">
+      <c r="IP4" t="str">
         <v>2021-03-19</v>
       </c>
-      <c r="IB4" t="str">
+      <c r="IQ4" t="str">
         <v>2021-03-17</v>
       </c>
-      <c r="IC4" t="str">
+      <c r="IR4" t="str">
         <v>2021-03-10</v>
       </c>
-      <c r="ID4" t="str">
+      <c r="IS4" t="str">
         <v>2021-03-05</v>
       </c>
-      <c r="IE4" t="str">
+      <c r="IT4" t="str">
         <v>2021-03-03</v>
       </c>
-      <c r="IF4" t="str">
+      <c r="IU4" t="str">
         <v>2021-02-26</v>
       </c>
-      <c r="IG4" t="str">
+      <c r="IV4" t="str">
         <v>2021-02-24</v>
       </c>
-      <c r="IH4" t="str">
+      <c r="IW4" t="str">
         <v>2021-02-19</v>
       </c>
-      <c r="II4" t="str">
+      <c r="IX4" t="str">
         <v>2021-02-17</v>
       </c>
-      <c r="IJ4" t="str">
+      <c r="IY4" t="str">
         <v>2021-02-12</v>
       </c>
-      <c r="IK4" t="str">
+      <c r="IZ4" t="str">
         <v>2021-02-10</v>
       </c>
-      <c r="IL4" t="str">
+      <c r="JA4" t="str">
         <v>2021-02-05</v>
       </c>
-      <c r="IM4" t="str">
+      <c r="JB4" t="str">
         <v>2021-02-03</v>
       </c>
-      <c r="IN4" t="str">
+      <c r="JC4" t="str">
         <v>2021-01-29</v>
       </c>
-      <c r="IO4" t="str">
+      <c r="JD4" t="str">
         <v>2021-01-27</v>
       </c>
-      <c r="IP4" t="str">
+      <c r="JE4" t="str">
         <v>2021-01-22</v>
       </c>
-      <c r="IQ4" t="str">
+      <c r="JF4" t="str">
         <v>2021-01-20</v>
       </c>
-      <c r="IR4" t="str">
+      <c r="JG4" t="str">
         <v>2021-01-15</v>
       </c>
-      <c r="IS4" t="str">
+      <c r="JH4" t="str">
         <v>2021-01-13</v>
       </c>
-      <c r="IT4" t="str">
+      <c r="JI4" t="str">
         <v>2021-01-08</v>
       </c>
-      <c r="IU4" t="str">
+      <c r="JJ4" t="str">
         <v>2021-01-06</v>
       </c>
-      <c r="IV4" t="str">
+      <c r="JK4" t="str">
         <v>2021-01-01</v>
       </c>
-      <c r="IW4" t="str">
+      <c r="JL4" t="str">
         <v>2020-12-30</v>
       </c>
-      <c r="IX4" t="str">
+      <c r="JM4" t="str">
         <v>2020-12-25</v>
       </c>
-      <c r="IY4" t="str">
+      <c r="JN4" t="str">
         <v>2020-12-23</v>
       </c>
-      <c r="IZ4" t="str">
+      <c r="JO4" t="str">
         <v>2020-12-18</v>
       </c>
-      <c r="JA4" t="str">
+      <c r="JP4" t="str">
         <v>2020-12-16</v>
       </c>
-      <c r="JB4" t="str">
+      <c r="JQ4" t="str">
         <v>2020-12-11</v>
       </c>
-      <c r="JC4" t="str">
+      <c r="JR4" t="str">
         <v>2020-12-09</v>
       </c>
-      <c r="JD4" t="str">
+      <c r="JS4" t="str">
         <v>2020-12-04</v>
       </c>
-      <c r="JE4" t="str">
+      <c r="JT4" t="str">
         <v>2020-12-02</v>
       </c>
-      <c r="JF4" t="str">
+      <c r="JU4" t="str">
         <v>2020-11-27</v>
       </c>
-      <c r="JG4" t="str">
+      <c r="JV4" t="str">
         <v>2020-11-25</v>
       </c>
-      <c r="JH4" t="str">
+      <c r="JW4" t="str">
         <v>2020-11-20</v>
       </c>
-      <c r="JI4" t="str">
+      <c r="JX4" t="str">
         <v>2020-11-18</v>
       </c>
-      <c r="JJ4" t="str">
+      <c r="JY4" t="str">
         <v>2020-11-13</v>
       </c>
-      <c r="JK4" t="str">
+      <c r="JZ4" t="str">
         <v>2020-11-11</v>
       </c>
-      <c r="JL4" t="str">
+      <c r="KA4" t="str">
         <v>2020-11-06</v>
       </c>
-      <c r="JM4" t="str">
+      <c r="KB4" t="str">
         <v>2020-11-04</v>
       </c>
-      <c r="JN4" t="str">
+      <c r="KC4" t="str">
         <v>2020-10-30</v>
       </c>
-      <c r="JO4" t="str">
+      <c r="KD4" t="str">
         <v>2020-10-28</v>
       </c>
-      <c r="JP4" t="str">
+      <c r="KE4" t="str">
         <v>2020-10-23</v>
       </c>
-      <c r="JQ4" t="str">
+      <c r="KF4" t="str">
         <v>2020-10-21</v>
       </c>
-      <c r="JR4" t="str">
+      <c r="KG4" t="str">
         <v>2020-10-16</v>
       </c>
-      <c r="JS4" t="str">
+      <c r="KH4" t="str">
         <v>2020-10-14</v>
       </c>
-      <c r="JT4" t="str">
+      <c r="KI4" t="str">
         <v>2020-10-09</v>
       </c>
-      <c r="JU4" t="str">
+      <c r="KJ4" t="str">
         <v>2020-10-07</v>
       </c>
-      <c r="JV4" t="str">
+      <c r="KK4" t="str">
         <v>2020-10-02</v>
       </c>
-      <c r="JW4" t="str">
+      <c r="KL4" t="str">
         <v>2020-09-30</v>
       </c>
-      <c r="JX4" t="str">
+      <c r="KM4" t="str">
         <v>2020-09-25</v>
       </c>
-      <c r="JY4" t="str">
+      <c r="KN4" t="str">
         <v>2020-09-23</v>
       </c>
-      <c r="JZ4" t="str">
+      <c r="KO4" t="str">
         <v>2020-09-18</v>
       </c>
-      <c r="KA4" t="str">
+      <c r="KP4" t="str">
         <v>2020-09-16</v>
       </c>
-      <c r="KB4" t="str">
+      <c r="KQ4" t="str">
         <v>2020-09-11</v>
       </c>
-      <c r="KC4" t="str">
+      <c r="KR4" t="str">
         <v>2020-09-09</v>
       </c>
-      <c r="KD4" t="str">
+      <c r="KS4" t="str">
         <v>2020-09-04</v>
       </c>
-      <c r="KE4" t="str">
+      <c r="KT4" t="str">
         <v>2020-09-02</v>
       </c>
-      <c r="KF4" t="str">
+      <c r="KU4" t="str">
         <v>2020-08-28</v>
       </c>
-      <c r="KG4" t="str">
+      <c r="KV4" t="str">
         <v>2020-08-26</v>
       </c>
-      <c r="KH4" t="str">
+      <c r="KW4" t="str">
         <v>2020-08-21</v>
       </c>
-      <c r="KI4" t="str">
+      <c r="KX4" t="str">
         <v>2020-08-19</v>
       </c>
-      <c r="KJ4" t="str">
+      <c r="KY4" t="str">
         <v>2020-08-14</v>
       </c>
-      <c r="KK4" t="str">
+      <c r="KZ4" t="str">
         <v>2020-08-12</v>
       </c>
-      <c r="KL4" t="str">
+      <c r="LA4" t="str">
         <v>2020-08-07</v>
       </c>
-      <c r="KM4" t="str">
+      <c r="LB4" t="str">
         <v>2020-08-05</v>
       </c>
-      <c r="KN4" t="str">
+      <c r="LC4" t="str">
         <v>2020-07-31</v>
       </c>
-      <c r="KO4" t="str">
+      <c r="LD4" t="str">
         <v>2020-07-29</v>
       </c>
-      <c r="KP4" t="str">
+      <c r="LE4" t="str">
         <v>2020-07-24</v>
       </c>
-      <c r="KQ4" t="str">
+      <c r="LF4" t="str">
         <v>2020-07-22</v>
       </c>
-      <c r="KR4" t="str">
+      <c r="LG4" t="str">
         <v>2020-07-17</v>
       </c>
-      <c r="KS4" t="str">
+      <c r="LH4" t="str">
         <v>2020-07-15</v>
       </c>
-      <c r="KT4" t="str">
+      <c r="LI4" t="str">
         <v>2020-07-10</v>
       </c>
-      <c r="KU4" t="str">
+      <c r="LJ4" t="str">
         <v>2020-07-08</v>
       </c>
-      <c r="KV4" t="str">
+      <c r="LK4" t="str">
         <v>2020-07-03</v>
       </c>
-      <c r="KW4" t="str">
+      <c r="LL4" t="str">
         <v>2020-07-01</v>
       </c>
-      <c r="KX4" t="str">
+      <c r="LM4" t="str">
         <v>2020-06-26</v>
       </c>
-      <c r="KY4" t="str">
+      <c r="LN4" t="str">
         <v>2020-06-24</v>
       </c>
-      <c r="KZ4" t="str">
+      <c r="LO4" t="str">
         <v>2020-06-19</v>
       </c>
-      <c r="LA4" t="str">
+      <c r="LP4" t="str">
         <v>2020-06-17</v>
       </c>
-      <c r="LB4" t="str">
+      <c r="LQ4" t="str">
         <v>2020-06-12</v>
       </c>
-      <c r="LC4" t="str">
+      <c r="LR4" t="str">
         <v>2020-06-10</v>
       </c>
-      <c r="LD4" t="str">
+      <c r="LS4" t="str">
         <v>2020-06-05</v>
       </c>
-      <c r="LE4" t="str">
+      <c r="LT4" t="str">
         <v>2020-06-03</v>
       </c>
-      <c r="LF4" t="str">
+      <c r="LU4" t="str">
         <v>2020-05-29</v>
       </c>
-      <c r="LG4" t="str">
+      <c r="LV4" t="str">
         <v>2020-05-27</v>
       </c>
-      <c r="LH4" t="str">
+      <c r="LW4" t="str">
         <v>2020-05-22</v>
       </c>
-      <c r="LI4" t="str">
+      <c r="LX4" t="str">
         <v>2020-05-20</v>
       </c>
-      <c r="LJ4" t="str">
+      <c r="LY4" t="str">
         <v>2020-05-15</v>
       </c>
-      <c r="LK4" t="str">
+      <c r="LZ4" t="str">
         <v>2020-05-13</v>
       </c>
-      <c r="LL4" t="str">
+      <c r="MA4" t="str">
         <v>2020-05-08</v>
       </c>
-      <c r="LM4" t="str">
+      <c r="MB4" t="str">
         <v>2020-05-06</v>
       </c>
-      <c r="LN4" t="str">
+      <c r="MC4" t="str">
         <v>2020-05-01</v>
       </c>
-      <c r="LO4" t="str">
+      <c r="MD4" t="str">
         <v>2020-04-29</v>
       </c>
-      <c r="LP4" t="str">
+      <c r="ME4" t="str">
         <v>2020-04-24</v>
       </c>
-      <c r="LQ4" t="str">
+      <c r="MF4" t="str">
         <v>2020-04-22</v>
       </c>
-      <c r="LR4" t="str">
+      <c r="MG4" t="str">
         <v>2020-04-17</v>
       </c>
-      <c r="LS4" t="str">
+      <c r="MH4" t="str">
         <v>2020-04-15</v>
       </c>
-      <c r="LT4" t="str">
+      <c r="MI4" t="str">
         <v>2020-04-10</v>
       </c>
-      <c r="LU4" t="str">
+      <c r="MJ4" t="str">
         <v>2020-04-08</v>
       </c>
-      <c r="LV4" t="str">
+      <c r="MK4" t="str">
         <v>2020-04-03</v>
       </c>
-      <c r="LW4" t="str">
+      <c r="ML4" t="str">
         <v>2020-04-01</v>
       </c>
-      <c r="LX4" t="str">
+      <c r="MM4" t="str">
         <v>2020-03-27</v>
       </c>
-      <c r="LY4" t="str">
+      <c r="MN4" t="str">
         <v>2020-03-25</v>
       </c>
-      <c r="LZ4" t="str">
+      <c r="MO4" t="str">
         <v>2020-03-20</v>
       </c>
-      <c r="MA4" t="str">
+      <c r="MP4" t="str">
         <v>2020-03-18</v>
       </c>
-      <c r="MB4" t="str">
+      <c r="MQ4" t="str">
         <v>2020-03-13</v>
       </c>
-      <c r="MC4" t="str">
+      <c r="MR4" t="str">
         <v>2020-03-11</v>
       </c>
-      <c r="MD4" t="str">
+      <c r="MS4" t="str">
         <v>2020-03-06</v>
       </c>
-      <c r="ME4" t="str">
+      <c r="MT4" t="str">
         <v>2020-03-04</v>
       </c>
-      <c r="MF4" t="str">
+      <c r="MU4" t="str">
         <v>2020-02-28</v>
       </c>
-      <c r="MG4" t="str">
+      <c r="MV4" t="str">
         <v>2020-02-26</v>
       </c>
-      <c r="MH4" t="str">
+      <c r="MW4" t="str">
         <v>2020-02-21</v>
       </c>
-      <c r="MI4" t="str">
+      <c r="MX4" t="str">
         <v>2020-02-19</v>
       </c>
-      <c r="MJ4" t="str">
+      <c r="MY4" t="str">
         <v>2020-02-14</v>
       </c>
-      <c r="MK4" t="str">
+      <c r="MZ4" t="str">
         <v>2020-02-12</v>
       </c>
-      <c r="ML4" t="str">
+      <c r="NA4" t="str">
         <v>2020-02-07</v>
       </c>
-      <c r="MM4" t="str">
+      <c r="NB4" t="str">
         <v>2020-02-05</v>
       </c>
-      <c r="MN4" t="str">
+      <c r="NC4" t="str">
         <v>2020-01-31</v>
       </c>
-      <c r="MO4" t="str">
+      <c r="ND4" t="str">
         <v>2020-01-29</v>
       </c>
-      <c r="MP4" t="str">
+      <c r="NE4" t="str">
         <v>2020-01-24</v>
       </c>
-      <c r="MQ4" t="str">
+      <c r="NF4" t="str">
         <v>2020-01-22</v>
       </c>
-      <c r="MR4" t="str">
+      <c r="NG4" t="str">
         <v>2020-01-17</v>
       </c>
-      <c r="MS4" t="str">
+      <c r="NH4" t="str">
         <v>2020-01-15</v>
       </c>
-      <c r="MT4" t="str">
+      <c r="NI4" t="str">
         <v>2020-01-10</v>
       </c>
-      <c r="MU4" t="str">
+      <c r="NJ4" t="str">
         <v>2020-01-08</v>
       </c>
-      <c r="MV4" t="str">
+      <c r="NK4" t="str">
         <v>2020-01-03</v>
       </c>
-      <c r="MW4" t="str">
+      <c r="NL4" t="str">
         <v>2020-01-01</v>
       </c>
-      <c r="MX4" t="str">
+      <c r="NM4" t="str">
         <v>2019-12-27</v>
       </c>
-      <c r="MY4" t="str">
+      <c r="NN4" t="str">
         <v>2019-12-25</v>
       </c>
-      <c r="MZ4" t="str">
+      <c r="NO4" t="str">
         <v>2019-12-20</v>
       </c>
-      <c r="NA4" t="str">
+      <c r="NP4" t="str">
         <v>2019-12-18</v>
       </c>
-      <c r="NB4" t="str">
+      <c r="NQ4" t="str">
         <v>2019-12-13</v>
       </c>
-      <c r="NC4" t="str">
+      <c r="NR4" t="str">
         <v>2019-12-11</v>
       </c>
-      <c r="ND4" t="str">
+      <c r="NS4" t="str">
         <v>2019-12-06</v>
       </c>
-      <c r="NE4" t="str">
+      <c r="NT4" t="str">
         <v>2019-12-04</v>
       </c>
-      <c r="NF4" t="str">
+      <c r="NU4" t="str">
         <v>2019-11-29</v>
       </c>
-      <c r="NG4" t="str">
+      <c r="NV4" t="str">
         <v>2019-11-27</v>
       </c>
-      <c r="NH4" t="str">
+      <c r="NW4" t="str">
         <v>2019-11-22</v>
       </c>
-      <c r="NI4" t="str">
+      <c r="NX4" t="str">
         <v>2019-11-20</v>
       </c>
-      <c r="NJ4" t="str">
+      <c r="NY4" t="str">
         <v>2019-11-15</v>
       </c>
-      <c r="NK4" t="str">
+      <c r="NZ4" t="str">
         <v>2019-11-13</v>
       </c>
-      <c r="NL4" t="str">
+      <c r="OA4" t="str">
         <v>2019-11-08</v>
       </c>
-      <c r="NM4" t="str">
+      <c r="OB4" t="str">
         <v>2019-11-06</v>
       </c>
-      <c r="NN4" t="str">
+      <c r="OC4" t="str">
         <v>2019-11-01</v>
       </c>
-      <c r="NO4" t="str">
+      <c r="OD4" t="str">
         <v>2019-10-30</v>
       </c>
-      <c r="NP4" t="str">
+      <c r="OE4" t="str">
         <v>2019-10-25</v>
       </c>
-      <c r="NQ4" t="str">
+      <c r="OF4" t="str">
         <v>2019-10-23</v>
       </c>
-      <c r="NR4" t="str">
+      <c r="OG4" t="str">
         <v>2019-10-18</v>
       </c>
-      <c r="NS4" t="str">
+      <c r="OH4" t="str">
         <v>2019-10-16</v>
       </c>
-      <c r="NT4" t="str">
+      <c r="OI4" t="str">
         <v>2019-10-11</v>
       </c>
-      <c r="NU4" t="str">
+      <c r="OJ4" t="str">
         <v>2019-10-09</v>
       </c>
-      <c r="NV4" t="str">
+      <c r="OK4" t="str">
         <v>2019-10-04</v>
       </c>
-      <c r="NW4" t="str">
+      <c r="OL4" t="str">
         <v>2019-10-02</v>
       </c>
-      <c r="NX4" t="str">
+      <c r="OM4" t="str">
         <v>2019-09-27</v>
       </c>
-      <c r="NY4" t="str">
+      <c r="ON4" t="str">
         <v>2019-09-25</v>
       </c>
-      <c r="NZ4" t="str">
+      <c r="OO4" t="str">
         <v>2019-09-20</v>
       </c>
-      <c r="OA4" t="str">
+      <c r="OP4" t="str">
         <v>2019-09-18</v>
       </c>
-      <c r="OB4" t="str">
+      <c r="OQ4" t="str">
         <v>2019-09-13</v>
       </c>
-      <c r="OC4" t="str">
+      <c r="OR4" t="str">
         <v>2019-09-11</v>
       </c>
-      <c r="OD4" t="str">
+      <c r="OS4" t="str">
         <v>2019-09-06</v>
       </c>
-      <c r="OE4" t="str">
+      <c r="OT4" t="str">
         <v>2019-09-04</v>
       </c>
-      <c r="OF4" t="str">
+      <c r="OU4" t="str">
         <v>2019-08-30</v>
       </c>
-      <c r="OG4" t="str">
+      <c r="OV4" t="str">
         <v>2019-08-28</v>
       </c>
-      <c r="OH4" t="str">
+      <c r="OW4" t="str">
         <v>2019-08-23</v>
       </c>
-      <c r="OI4" t="str">
+      <c r="OX4" t="str">
         <v>2019-08-21</v>
       </c>
-      <c r="OJ4" t="str">
+      <c r="OY4" t="str">
         <v>2019-08-16</v>
       </c>
-      <c r="OK4" t="str">
+      <c r="OZ4" t="str">
         <v>2019-08-14</v>
       </c>
-      <c r="OL4" t="str">
+      <c r="PA4" t="str">
         <v>2019-08-09</v>
       </c>
-      <c r="OM4" t="str">
+      <c r="PB4" t="str">
         <v>2019-08-07</v>
       </c>
-      <c r="ON4" t="str">
+      <c r="PC4" t="str">
         <v>2019-08-02</v>
       </c>
-      <c r="OO4" t="str">
+      <c r="PD4" t="str">
         <v>2019-07-31</v>
       </c>
-      <c r="OP4" t="str">
+      <c r="PE4" t="str">
         <v>2019-07-26</v>
       </c>
-      <c r="OQ4" t="str">
+      <c r="PF4" t="str">
         <v>2019-07-24</v>
       </c>
-      <c r="OR4" t="str">
+      <c r="PG4" t="str">
         <v>2019-07-19</v>
       </c>
-      <c r="OS4" t="str">
+      <c r="PH4" t="str">
         <v>2019-07-17</v>
       </c>
-      <c r="OT4" t="str">
+      <c r="PI4" t="str">
         <v>2019-07-12</v>
       </c>
-      <c r="OU4" t="str">
+      <c r="PJ4" t="str">
         <v>2019-07-10</v>
       </c>
-      <c r="OV4" t="str">
+      <c r="PK4" t="str">
         <v>2019-07-05</v>
       </c>
-      <c r="OW4" t="str">
+      <c r="PL4" t="str">
         <v>2019-07-03</v>
       </c>
-      <c r="OX4" t="str">
+      <c r="PM4" t="str">
         <v>2019-06-28</v>
       </c>
-      <c r="OY4" t="str">
+      <c r="PN4" t="str">
         <v>2019-06-26</v>
       </c>
-      <c r="OZ4" t="str">
+      <c r="PO4" t="str">
         <v>2019-06-21</v>
       </c>
-      <c r="PA4" t="str">
+      <c r="PP4" t="str">
         <v>2019-06-19</v>
       </c>
-      <c r="PB4" t="str">
+      <c r="PQ4" t="str">
         <v>2019-06-14</v>
       </c>
-      <c r="PC4" t="str">
+      <c r="PR4" t="str">
         <v>2019-06-12</v>
       </c>
-      <c r="PD4" t="str">
+      <c r="PS4" t="str">
         <v>2019-06-07</v>
       </c>
-      <c r="PE4" t="str">
+      <c r="PT4" t="str">
         <v>2019-06-05</v>
       </c>
-      <c r="PF4" t="str">
+      <c r="PU4" t="str">
         <v>2019-05-31</v>
       </c>
-      <c r="PG4" t="str">
+      <c r="PV4" t="str">
         <v>2019-05-29</v>
       </c>
-      <c r="PH4" t="str">
+      <c r="PW4" t="str">
         <v>2019-05-24</v>
       </c>
-      <c r="PI4" t="str">
+      <c r="PX4" t="str">
         <v>2019-05-22</v>
       </c>
-      <c r="PJ4" t="str">
+      <c r="PY4" t="str">
         <v>2019-05-17</v>
       </c>
-      <c r="PK4" t="str">
+      <c r="PZ4" t="str">
         <v>2019-05-15</v>
       </c>
-      <c r="PL4" t="str">
+      <c r="QA4" t="str">
         <v>2019-05-10</v>
       </c>
-      <c r="PM4" t="str">
+      <c r="QB4" t="str">
         <v>2019-05-08</v>
       </c>
-      <c r="PN4" t="str">
+      <c r="QC4" t="str">
         <v>2019-05-03</v>
       </c>
-      <c r="PO4" t="str">
+      <c r="QD4" t="str">
         <v>2019-05-01</v>
       </c>
-      <c r="PP4" t="str">
+      <c r="QE4" t="str">
         <v>2019-04-26</v>
       </c>
-      <c r="PQ4" t="str">
+      <c r="QF4" t="str">
         <v>2019-04-24</v>
       </c>
-      <c r="PR4" t="str">
+      <c r="QG4" t="str">
         <v>2019-04-19</v>
       </c>
-      <c r="PS4" t="str">
+      <c r="QH4" t="str">
         <v>2019-04-17</v>
       </c>
-      <c r="PT4" t="str">
+      <c r="QI4" t="str">
         <v>2019-04-12</v>
       </c>
-      <c r="PU4" t="str">
+      <c r="QJ4" t="str">
         <v>2019-04-10</v>
       </c>
-      <c r="PV4" t="str">
+      <c r="QK4" t="str">
         <v>2019-04-05</v>
       </c>
-      <c r="PW4" t="str">
+      <c r="QL4" t="str">
         <v>2019-04-03</v>
       </c>
-      <c r="PX4" t="str">
+      <c r="QM4" t="str">
         <v>2019-03-29</v>
       </c>
-      <c r="PY4" t="str">
+      <c r="QN4" t="str">
         <v>2019-03-27</v>
       </c>
-      <c r="PZ4" t="str">
+      <c r="QO4" t="str">
         <v>2019-03-22</v>
       </c>
-      <c r="QA4" t="str">
+      <c r="QP4" t="str">
         <v>2019-03-20</v>
       </c>
-      <c r="QB4" t="str">
+      <c r="QQ4" t="str">
         <v>2019-03-15</v>
       </c>
-      <c r="QC4" t="str">
+      <c r="QR4" t="str">
         <v>2019-03-13</v>
       </c>
-      <c r="QD4" t="str">
+      <c r="QS4" t="str">
         <v>2019-03-08</v>
       </c>
-      <c r="QE4" t="str">
+      <c r="QT4" t="str">
         <v>2019-03-06</v>
       </c>
-      <c r="QF4" t="str">
+      <c r="QU4" t="str">
         <v>2019-03-01</v>
       </c>
-      <c r="QG4" t="str">
+      <c r="QV4" t="str">
         <v>2019-02-27</v>
       </c>
-      <c r="QH4" t="str">
+      <c r="QW4" t="str">
         <v>2019-02-22</v>
       </c>
-      <c r="QI4" t="str">
+      <c r="QX4" t="str">
         <v>2019-02-20</v>
       </c>
-      <c r="QJ4" t="str">
+      <c r="QY4" t="str">
         <v>2019-02-15</v>
       </c>
-      <c r="QK4" t="str">
+      <c r="QZ4" t="str">
         <v>2019-02-13</v>
       </c>
-      <c r="QL4" t="str">
+      <c r="RA4" t="str">
         <v>2019-02-08</v>
       </c>
-      <c r="QM4" t="str">
+      <c r="RB4" t="str">
         <v>2019-02-06</v>
       </c>
-      <c r="QN4" t="str">
+      <c r="RC4" t="str">
         <v>2019-02-01</v>
       </c>
-      <c r="QO4" t="str">
+      <c r="RD4" t="str">
         <v>2019-01-30</v>
       </c>
-      <c r="QP4" t="str">
+      <c r="RE4" t="str">
         <v>2019-01-25</v>
       </c>
-      <c r="QQ4" t="str">
+      <c r="RF4" t="str">
         <v>2019-01-23</v>
       </c>
-      <c r="QR4" t="str">
+      <c r="RG4" t="str">
         <v>2019-01-18</v>
       </c>
-      <c r="QS4" t="str">
+      <c r="RH4" t="str">
         <v>2019-01-16</v>
       </c>
-      <c r="QT4" t="str">
+      <c r="RI4" t="str">
         <v>2019-01-11</v>
       </c>
-      <c r="QU4" t="str">
+      <c r="RJ4" t="str">
         <v>2019-01-09</v>
       </c>
-      <c r="QV4" t="str">
+      <c r="RK4" t="str">
         <v>2019-01-04</v>
       </c>
-      <c r="QW4" t="str">
+      <c r="RL4" t="str">
         <v>2019-01-02</v>
       </c>
-      <c r="QX4" t="str">
+      <c r="RM4" t="str">
         <v>2018-12-28</v>
       </c>
-      <c r="QY4" t="str">
+      <c r="RN4" t="str">
         <v>2018-12-26</v>
       </c>
-      <c r="QZ4" t="str">
+      <c r="RO4" t="str">
         <v>2018-12-21</v>
       </c>
-      <c r="RA4" t="str">
+      <c r="RP4" t="str">
         <v>2018-12-19</v>
       </c>
-      <c r="RB4" t="str">
+      <c r="RQ4" t="str">
         <v>2018-12-14</v>
       </c>
-      <c r="RC4" t="str">
+      <c r="RR4" t="str">
         <v>2018-12-12</v>
       </c>
-      <c r="RD4" t="str">
+      <c r="RS4" t="str">
         <v>2018-12-07</v>
       </c>
-      <c r="RE4" t="str">
+      <c r="RT4" t="str">
         <v>2018-12-05</v>
       </c>
-      <c r="RF4" t="str">
+      <c r="RU4" t="str">
         <v>2018-11-30</v>
       </c>
-      <c r="RG4" t="str">
+      <c r="RV4" t="str">
         <v>2018-11-28</v>
       </c>
-      <c r="RH4" t="str">
+      <c r="RW4" t="str">
         <v>2018-11-23</v>
       </c>
-      <c r="RI4" t="str">
+      <c r="RX4" t="str">
         <v>2018-11-21</v>
       </c>
-      <c r="RJ4" t="str">
+      <c r="RY4" t="str">
         <v>2018-11-16</v>
       </c>
-      <c r="RK4" t="str">
+      <c r="RZ4" t="str">
         <v>2018-11-14</v>
       </c>
-      <c r="RL4" t="str">
+      <c r="SA4" t="str">
         <v>2018-11-09</v>
       </c>
-      <c r="RM4" t="str">
+      <c r="SB4" t="str">
         <v>2018-11-07</v>
       </c>
-      <c r="RN4" t="str">
+      <c r="SC4" t="str">
         <v>2018-11-02</v>
       </c>
-      <c r="RO4" t="str">
+      <c r="SD4" t="str">
         <v>2018-10-31</v>
       </c>
-      <c r="RP4" t="str">
+      <c r="SE4" t="str">
         <v>2018-10-26</v>
       </c>
-      <c r="RQ4" t="str">
+      <c r="SF4" t="str">
         <v>2018-10-24</v>
       </c>
-      <c r="RR4" t="str">
+      <c r="SG4" t="str">
         <v>2018-10-19</v>
       </c>
-      <c r="RS4" t="str">
+      <c r="SH4" t="str">
         <v>2018-10-17</v>
       </c>
-      <c r="RT4" t="str">
+      <c r="SI4" t="str">
         <v>2018-10-12</v>
       </c>
-      <c r="RU4" t="str">
+      <c r="SJ4" t="str">
         <v>2018-10-10</v>
       </c>
-      <c r="RV4" t="str">
+      <c r="SK4" t="str">
         <v>2018-10-05</v>
       </c>
-      <c r="RW4" t="str">
+      <c r="SL4" t="str">
         <v>2018-10-03</v>
       </c>
-      <c r="RX4" t="str">
+      <c r="SM4" t="str">
         <v>2018-09-28</v>
       </c>
-      <c r="RY4" t="str">
+      <c r="SN4" t="str">
         <v>2018-09-26</v>
       </c>
-      <c r="RZ4" t="str">
+      <c r="SO4" t="str">
         <v>2018-09-21</v>
       </c>
-      <c r="SA4" t="str">
+      <c r="SP4" t="str">
         <v>2018-09-19</v>
       </c>
-      <c r="SB4" t="str">
+      <c r="SQ4" t="str">
         <v>2018-09-14</v>
       </c>
-      <c r="SC4" t="str">
+      <c r="SR4" t="str">
         <v>2018-09-12</v>
       </c>
-      <c r="SD4" t="str">
+      <c r="SS4" t="str">
         <v>2018-09-07</v>
       </c>
-      <c r="SE4" t="str">
+      <c r="ST4" t="str">
         <v>2018-09-05</v>
       </c>
-      <c r="SF4" t="str">
+      <c r="SU4" t="str">
         <v>2018-08-31</v>
       </c>
-      <c r="SG4" t="str">
+      <c r="SV4" t="str">
         <v>2018-08-29</v>
       </c>
-      <c r="SH4" t="str">
+      <c r="SW4" t="str">
         <v>2018-08-24</v>
       </c>
-      <c r="SI4" t="str">
+      <c r="SX4" t="str">
         <v>2018-08-22</v>
       </c>
-      <c r="SJ4" t="str">
+      <c r="SY4" t="str">
         <v>2018-08-17</v>
       </c>
-      <c r="SK4" t="str">
+      <c r="SZ4" t="str">
         <v>2018-08-15</v>
       </c>
-      <c r="SL4" t="str">
+      <c r="TA4" t="str">
         <v>2018-08-10</v>
       </c>
-      <c r="SM4" t="str">
+      <c r="TB4" t="str">
         <v>2018-08-08</v>
       </c>
-      <c r="SN4" t="str">
+      <c r="TC4" t="str">
         <v>2018-08-03</v>
       </c>
-      <c r="SO4" t="str">
+      <c r="TD4" t="str">
         <v>2018-08-01</v>
       </c>
-      <c r="SP4" t="str">
+      <c r="TE4" t="str">
         <v>2018-07-27</v>
       </c>
-      <c r="SQ4" t="str">
+      <c r="TF4" t="str">
         <v>2018-07-25</v>
       </c>
-      <c r="SR4" t="str">
+      <c r="TG4" t="str">
         <v>2018-07-20</v>
       </c>
-      <c r="SS4" t="str">
+      <c r="TH4" t="str">
         <v>2018-07-18</v>
       </c>
-      <c r="ST4" t="str">
+      <c r="TI4" t="str">
         <v>2018-07-13</v>
       </c>
-      <c r="SU4" t="str">
+      <c r="TJ4" t="str">
         <v>2018-07-11</v>
       </c>
-      <c r="SV4" t="str">
+      <c r="TK4" t="str">
         <v>2018-07-06</v>
       </c>
-      <c r="SW4" t="str">
+      <c r="TL4" t="str">
         <v>2018-07-04</v>
       </c>
-      <c r="SX4" t="str">
+      <c r="TM4" t="str">
         <v>2018-06-29</v>
       </c>
-      <c r="SY4" t="str">
+      <c r="TN4" t="str">
         <v>2018-06-27</v>
       </c>
-      <c r="SZ4" t="str">
+      <c r="TO4" t="str">
         <v>2018-06-22</v>
       </c>
-      <c r="TA4" t="str">
+      <c r="TP4" t="str">
         <v>2018-06-20</v>
       </c>
-      <c r="TB4" t="str">
+      <c r="TQ4" t="str">
         <v>2018-06-15</v>
       </c>
-      <c r="TC4" t="str">
+      <c r="TR4" t="str">
         <v>2018-06-13</v>
       </c>
-      <c r="TD4" t="str">
+      <c r="TS4" t="str">
         <v>2018-06-08</v>
       </c>
-      <c r="TE4" t="str">
+      <c r="TT4" t="str">
         <v>2018-06-06</v>
       </c>
-      <c r="TF4" t="str">
+      <c r="TU4" t="str">
         <v>2018-06-01</v>
       </c>
-      <c r="TG4" t="str">
+      <c r="TV4" t="str">
         <v>2018-05-30</v>
       </c>
-      <c r="TH4" t="str">
+      <c r="TW4" t="str">
         <v>2018-05-25</v>
       </c>
-      <c r="TI4" t="str">
+      <c r="TX4" t="str">
         <v>2018-05-23</v>
       </c>
-      <c r="TJ4" t="str">
+      <c r="TY4" t="str">
         <v>2018-05-18</v>
       </c>
-      <c r="TK4" t="str">
+      <c r="TZ4" t="str">
         <v>2018-05-16</v>
       </c>
-      <c r="TL4" t="str">
+      <c r="UA4" t="str">
         <v>2018-05-11</v>
       </c>
-      <c r="TM4" t="str">
+      <c r="UB4" t="str">
         <v>2018-05-09</v>
       </c>
-      <c r="TN4" t="str">
+      <c r="UC4" t="str">
         <v>2018-05-04</v>
       </c>
-      <c r="TO4" t="str">
+      <c r="UD4" t="str">
         <v>2018-05-02</v>
       </c>
-      <c r="TP4" t="str">
+      <c r="UE4" t="str">
         <v>2018-04-27</v>
       </c>
-      <c r="TQ4" t="str">
+      <c r="UF4" t="str">
         <v>2018-04-25</v>
       </c>
-      <c r="TR4" t="str">
+      <c r="UG4" t="str">
         <v>2018-04-20</v>
       </c>
-      <c r="TS4" t="str">
+      <c r="UH4" t="str">
         <v>2018-04-18</v>
       </c>
-      <c r="TT4" t="str">
+      <c r="UI4" t="str">
         <v>2018-04-13</v>
       </c>
-      <c r="TU4" t="str">
+      <c r="UJ4" t="str">
         <v>2018-04-11</v>
       </c>
-      <c r="TV4" t="str">
+      <c r="UK4" t="str">
         <v>2018-04-06</v>
       </c>
-      <c r="TW4" t="str">
+      <c r="UL4" t="str">
         <v>2018-04-04</v>
       </c>
-      <c r="TX4" t="str">
+      <c r="UM4" t="str">
         <v>2018-03-30</v>
       </c>
-      <c r="TY4" t="str">
+      <c r="UN4" t="str">
         <v>2018-03-28</v>
       </c>
-      <c r="TZ4" t="str">
+      <c r="UO4" t="str">
         <v>2018-03-23</v>
       </c>
-      <c r="UA4" t="str">
+      <c r="UP4" t="str">
         <v>2018-03-21</v>
       </c>
-      <c r="UB4" t="str">
+      <c r="UQ4" t="str">
         <v>2018-03-19</v>
       </c>
-      <c r="UC4" t="str">
+      <c r="UR4" t="str">
         <v>2017-07-28</v>
       </c>
-      <c r="UD4" t="str">
+      <c r="US4" t="str">
         <v>2017-07-21</v>
       </c>
-      <c r="UE4" t="str">
+      <c r="UT4" t="str">
         <v>2017-07-14</v>
       </c>
-      <c r="UF4" t="str">
+      <c r="UU4" t="str">
         <v>2017-07-07</v>
       </c>
-      <c r="UG4" t="str">
+      <c r="UV4" t="str">
         <v>2017-06-30</v>
       </c>
-      <c r="UH4" t="str">
+      <c r="UW4" t="str">
         <v>2017-06-23</v>
       </c>
-      <c r="UI4" t="str">
+      <c r="UX4" t="str">
         <v>2017-06-16</v>
       </c>
-      <c r="UJ4" t="str">
+      <c r="UY4" t="str">
         <v>2017-06-09</v>
       </c>
-      <c r="UK4" t="str">
+      <c r="UZ4" t="str">
         <v>2017-06-02</v>
       </c>
-      <c r="UL4" t="str">
+      <c r="VA4" t="str">
         <v>2017-05-26</v>
       </c>
-      <c r="UM4" t="str">
+      <c r="VB4" t="str">
         <v>2017-05-19</v>
       </c>
-      <c r="UN4" t="str">
+      <c r="VC4" t="str">
         <v>2017-05-12</v>
       </c>
-      <c r="UO4" t="str">
+      <c r="VD4" t="str">
         <v>2017-05-05</v>
       </c>
-      <c r="UP4" t="str">
+      <c r="VE4" t="str">
         <v>2017-04-28</v>
       </c>
-      <c r="UQ4" t="str">
+      <c r="VF4" t="str">
         <v>2017-04-21</v>
       </c>
-      <c r="UR4" t="str">
+      <c r="VG4" t="str">
         <v>2017-04-14</v>
       </c>
-      <c r="US4" t="str">
+      <c r="VH4" t="str">
         <v>2017-04-07</v>
       </c>
-      <c r="UT4" t="str">
+      <c r="VI4" t="str">
         <v>2017-03-31</v>
       </c>
-      <c r="UU4" t="str">
+      <c r="VJ4" t="str">
         <v>2017-03-24</v>
       </c>
-      <c r="UV4" t="str">
+      <c r="VK4" t="str">
         <v>2017-03-17</v>
       </c>
-      <c r="UW4" t="str">
+      <c r="VL4" t="str">
         <v>2017-03-10</v>
       </c>
-      <c r="UX4" t="str">
+      <c r="VM4" t="str">
         <v>2017-03-03</v>
       </c>
-      <c r="UY4" t="str">
+      <c r="VN4" t="str">
         <v>2017-02-24</v>
       </c>
-      <c r="UZ4" t="str">
+      <c r="VO4" t="str">
         <v>2017-02-17</v>
       </c>
-      <c r="VA4" t="str">
+      <c r="VP4" t="str">
         <v>2017-02-10</v>
       </c>
-      <c r="VB4" t="str">
+      <c r="VQ4" t="str">
         <v>2017-02-03</v>
       </c>
-      <c r="VC4" t="str">
+      <c r="VR4" t="str">
         <v>2017-01-27</v>
       </c>
-      <c r="VD4" t="str">
+      <c r="VS4" t="str">
         <v>2017-01-20</v>
       </c>
-      <c r="VE4" t="str">
+      <c r="VT4" t="str">
         <v>2017-01-13</v>
       </c>
-      <c r="VF4" t="str">
+      <c r="VU4" t="str">
         <v>2017-01-06</v>
       </c>
-      <c r="VG4" t="str">
+      <c r="VV4" t="str">
         <v>2016-12-30</v>
       </c>
-      <c r="VH4" t="str">
+      <c r="VW4" t="str">
         <v>2016-12-23</v>
       </c>
-      <c r="VI4" t="str">
+      <c r="VX4" t="str">
         <v>2016-12-16</v>
       </c>
-      <c r="VJ4" t="str">
+      <c r="VY4" t="str">
         <v>2016-12-09</v>
       </c>
-      <c r="VK4" t="str">
+      <c r="VZ4" t="str">
         <v>2016-12-02</v>
       </c>
-      <c r="VL4" t="str">
+      <c r="WA4" t="str">
         <v>2016-11-25</v>
       </c>
-      <c r="VM4" t="str">
+      <c r="WB4" t="str">
         <v>2016-11-18</v>
       </c>
-      <c r="VN4" t="str">
+      <c r="WC4" t="str">
         <v>2016-11-11</v>
       </c>
-      <c r="VO4" t="str">
+      <c r="WD4" t="str">
         <v>2016-11-04</v>
       </c>
-      <c r="VP4" t="str">
+      <c r="WE4" t="str">
         <v>2016-10-28</v>
       </c>
-      <c r="VQ4" t="str">
+      <c r="WF4" t="str">
         <v>2016-10-21</v>
       </c>
-      <c r="VR4" t="str">
+      <c r="WG4" t="str">
         <v>2016-10-14</v>
       </c>
-      <c r="VS4" t="str">
+      <c r="WH4" t="str">
         <v>2016-10-07</v>
       </c>
-      <c r="VT4" t="str">
+      <c r="WI4" t="str">
         <v>2016-09-30</v>
       </c>
-      <c r="VU4" t="str">
+      <c r="WJ4" t="str">
         <v>2016-09-23</v>
       </c>
-      <c r="VV4" t="str">
+      <c r="WK4" t="str">
         <v>2016-09-16</v>
       </c>
-      <c r="VW4" t="str">
+      <c r="WL4" t="str">
         <v>2016-09-09</v>
       </c>
-      <c r="VX4" t="str">
+      <c r="WM4" t="str">
         <v>2016-09-02</v>
       </c>
-      <c r="VY4" t="str">
+      <c r="WN4" t="str">
         <v>2016-08-26</v>
       </c>
-      <c r="VZ4" t="str">
+      <c r="WO4" t="str">
         <v>2016-08-19</v>
       </c>
-      <c r="WA4" t="str">
+      <c r="WP4" t="str">
         <v>2016-08-12</v>
       </c>
-      <c r="WB4" t="str">
+      <c r="WQ4" t="str">
         <v>2016-08-05</v>
       </c>
-      <c r="WC4" t="str">
+      <c r="WR4" t="str">
         <v>2016-07-29</v>
       </c>
-      <c r="WD4" t="str">
+      <c r="WS4" t="str">
         <v>2016-07-22</v>
       </c>
-      <c r="WE4" t="str">
+      <c r="WT4" t="str">
         <v>2016-07-15</v>
       </c>
-      <c r="WF4" t="str">
+      <c r="WU4" t="str">
         <v>2016-07-08</v>
       </c>
-      <c r="WG4" t="str">
+      <c r="WV4" t="str">
         <v>2016-07-01</v>
       </c>
-      <c r="WH4" t="str">
+      <c r="WW4" t="str">
         <v>2016-06-24</v>
       </c>
-      <c r="WI4" t="str">
+      <c r="WX4" t="str">
         <v>2016-06-17</v>
       </c>
-      <c r="WJ4" t="str">
+      <c r="WY4" t="str">
         <v>2016-06-10</v>
       </c>
-      <c r="WK4" t="str">
+      <c r="WZ4" t="str">
         <v>2016-06-03</v>
       </c>
-      <c r="WL4" t="str">
+      <c r="XA4" t="str">
         <v>2016-05-27</v>
       </c>
-      <c r="WM4" t="str">
+      <c r="XB4" t="str">
         <v>2016-05-20</v>
       </c>
-      <c r="WN4" t="str">
+      <c r="XC4" t="str">
         <v>2016-05-13</v>
       </c>
-      <c r="WO4" t="str">
+      <c r="XD4" t="str">
         <v>2016-05-06</v>
       </c>
-      <c r="WP4" t="str">
+      <c r="XE4" t="str">
         <v>2016-04-29</v>
       </c>
-      <c r="WQ4" t="str">
+      <c r="XF4" t="str">
         <v>2016-04-22</v>
       </c>
-      <c r="WR4" t="str">
+      <c r="XG4" t="str">
         <v>2016-04-15</v>
       </c>
-      <c r="WS4" t="str">
+      <c r="XH4" t="str">
         <v>2016-04-08</v>
       </c>
-      <c r="WT4" t="str">
+      <c r="XI4" t="str">
         <v>2016-04-01</v>
       </c>
-      <c r="WU4" t="str">
+      <c r="XJ4" t="str">
         <v>2016-03-25</v>
       </c>
-      <c r="WV4" t="str">
+      <c r="XK4" t="str">
         <v>2016-03-18</v>
       </c>
     </row>
@@ -8477,1866 +8672,1911 @@
         <v>Dividend Yield %</v>
       </c>
       <c r="B5" t="str">
+        <v>7.5120</v>
+      </c>
+      <c r="C5" t="str">
+        <v>7.5290</v>
+      </c>
+      <c r="D5" t="str">
+        <v>7.4880</v>
+      </c>
+      <c r="E5" t="str">
+        <v>7.4430</v>
+      </c>
+      <c r="F5" t="str">
+        <v>7.4520</v>
+      </c>
+      <c r="G5" t="str">
+        <v>7.5180</v>
+      </c>
+      <c r="H5" t="str">
+        <v>7.5880</v>
+      </c>
+      <c r="I5" t="str">
+        <v>7.6980</v>
+      </c>
+      <c r="J5" t="str">
+        <v>7.6430</v>
+      </c>
+      <c r="K5" t="str">
+        <v>7.7660</v>
+      </c>
+      <c r="L5" t="str">
+        <v>7.8010</v>
+      </c>
+      <c r="M5" t="str">
+        <v>7.8550</v>
+      </c>
+      <c r="N5" t="str">
+        <v>7.9380</v>
+      </c>
+      <c r="O5" t="str">
+        <v>8.1160</v>
+      </c>
+      <c r="P5" t="str">
+        <v>7.9850</v>
+      </c>
+      <c r="Q5" t="str">
         <v>7.8990</v>
       </c>
-      <c r="C5" t="str">
+      <c r="R5" t="str">
         <v>8.0230</v>
       </c>
-      <c r="D5" t="str">
+      <c r="S5" t="str">
         <v>7.9880</v>
       </c>
-      <c r="E5" t="str">
+      <c r="T5" t="str">
         <v>7.8470</v>
       </c>
-      <c r="F5" t="str">
+      <c r="U5" t="str">
         <v>7.9790</v>
       </c>
-      <c r="G5" t="str">
+      <c r="V5" t="str">
         <v>8.2180</v>
       </c>
-      <c r="H5" t="str">
+      <c r="W5" t="str">
         <v>7.8950</v>
       </c>
-      <c r="I5" t="str">
+      <c r="X5" t="str">
         <v>7.8030</v>
       </c>
-      <c r="J5" t="str">
+      <c r="Y5" t="str">
         <v>7.7600</v>
       </c>
-      <c r="K5" t="str">
+      <c r="Z5" t="str">
         <v>7.8890</v>
       </c>
-      <c r="L5" t="str">
+      <c r="AA5" t="str">
         <v>8.2240</v>
       </c>
-      <c r="M5" t="str">
+      <c r="AB5" t="str">
         <v>7.7240</v>
       </c>
-      <c r="N5" t="str">
+      <c r="AC5" t="str">
         <v>7.7160</v>
       </c>
-      <c r="O5" t="str">
+      <c r="AD5" t="str">
         <v>7.7850</v>
       </c>
-      <c r="P5" t="str">
+      <c r="AE5" t="str">
         <v>7.5410</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="AF5" t="str">
         <v>7.6550</v>
       </c>
-      <c r="R5" t="str">
+      <c r="AG5" t="str">
         <v>7.5630</v>
       </c>
-      <c r="S5" t="str">
+      <c r="AH5" t="str">
         <v>7.5980</v>
       </c>
-      <c r="T5" t="str">
+      <c r="AI5" t="str">
         <v>7.4940</v>
       </c>
-      <c r="U5" t="str">
+      <c r="AJ5" t="str">
         <v>7.5150</v>
       </c>
-      <c r="V5" t="str">
+      <c r="AK5" t="str">
         <v>7.6010</v>
       </c>
-      <c r="W5" t="str">
+      <c r="AL5" t="str">
         <v>7.5530</v>
       </c>
-      <c r="X5" t="str">
+      <c r="AM5" t="str">
         <v>7.6580</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="AN5" t="str">
         <v>7.7610</v>
       </c>
-      <c r="Z5" t="str">
+      <c r="AO5" t="str">
         <v>8.1030</v>
       </c>
-      <c r="AA5" t="str">
+      <c r="AP5" t="str">
         <v>8.0040</v>
       </c>
-      <c r="AB5" t="str">
+      <c r="AQ5" t="str">
         <v>7.9910</v>
       </c>
-      <c r="AC5" t="str">
+      <c r="AR5" t="str">
         <v>7.9910</v>
       </c>
-      <c r="AD5" t="str">
+      <c r="AS5" t="str">
         <v>7.6450</v>
       </c>
-      <c r="AE5" t="str">
+      <c r="AT5" t="str">
         <v>7.5200</v>
       </c>
-      <c r="AF5" t="str">
+      <c r="AU5" t="str">
         <v>7.4600</v>
       </c>
-      <c r="AG5" t="str">
+      <c r="AV5" t="str">
         <v>7.6210</v>
       </c>
-      <c r="AH5" t="str">
+      <c r="AW5" t="str">
         <v>7.5590</v>
       </c>
-      <c r="AI5" t="str">
+      <c r="AX5" t="str">
         <v>7.5380</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AY5" t="str">
         <v>7.4880</v>
       </c>
-      <c r="AK5" t="str">
+      <c r="AZ5" t="str">
         <v>7.3160</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="BA5" t="str">
         <v>7.3800</v>
       </c>
-      <c r="AM5" t="str">
+      <c r="BB5" t="str">
         <v>7.2690</v>
       </c>
-      <c r="AN5" t="str">
+      <c r="BC5" t="str">
         <v>7.2980</v>
       </c>
-      <c r="AO5" t="str">
+      <c r="BD5" t="str">
         <v>7.3210</v>
       </c>
-      <c r="AP5" t="str">
+      <c r="BE5" t="str">
         <v>7.2160</v>
       </c>
-      <c r="AQ5" t="str">
+      <c r="BF5" t="str">
         <v>7.2640</v>
       </c>
-      <c r="AR5" t="str">
+      <c r="BG5" t="str">
         <v>7.3740</v>
       </c>
-      <c r="AS5" t="str">
+      <c r="BH5" t="str">
         <v>7.4810</v>
       </c>
-      <c r="AT5" t="str">
+      <c r="BI5" t="str">
         <v>7.3560</v>
       </c>
-      <c r="AU5" t="str">
+      <c r="BJ5" t="str">
         <v>7.4210</v>
       </c>
-      <c r="AV5" t="str">
+      <c r="BK5" t="str">
         <v>7.5270</v>
       </c>
-      <c r="AW5" t="str">
+      <c r="BL5" t="str">
         <v>7.8320</v>
       </c>
-      <c r="AX5" t="str">
+      <c r="BM5" t="str">
         <v>7.7540</v>
       </c>
-      <c r="AY5" t="str">
+      <c r="BN5" t="str">
         <v>7.9530</v>
       </c>
-      <c r="AZ5" t="str">
+      <c r="BO5" t="str">
         <v>7.8070</v>
       </c>
-      <c r="BA5" t="str">
+      <c r="BP5" t="str">
         <v>7.8970</v>
       </c>
-      <c r="BB5" t="str">
+      <c r="BQ5" t="str">
         <v>7.8800</v>
       </c>
-      <c r="BC5" t="str">
+      <c r="BR5" t="str">
         <v>7.8010</v>
       </c>
-      <c r="BD5" t="str">
+      <c r="BS5" t="str">
         <v>8.0020</v>
       </c>
-      <c r="BE5" t="str">
+      <c r="BT5" t="str">
         <v>7.8200</v>
       </c>
-      <c r="BF5" t="str">
+      <c r="BU5" t="str">
         <v>7.3950</v>
       </c>
-      <c r="BG5" t="str">
+      <c r="BV5" t="str">
         <v>7.3710</v>
       </c>
-      <c r="BH5" t="str">
+      <c r="BW5" t="str">
         <v>7.2250</v>
       </c>
-      <c r="BI5" t="str">
+      <c r="BX5" t="str">
         <v>7.2340</v>
       </c>
-      <c r="BJ5" t="str">
+      <c r="BY5" t="str">
         <v>7.2340</v>
       </c>
-      <c r="BK5" t="str">
+      <c r="BZ5" t="str">
         <v>7.2460</v>
       </c>
-      <c r="BL5" t="str">
+      <c r="CA5" t="str">
         <v>7.2420</v>
       </c>
-      <c r="BM5" t="str">
+      <c r="CB5" t="str">
         <v>7.3930</v>
       </c>
-      <c r="BN5" t="str">
+      <c r="CC5" t="str">
         <v>6.9870</v>
       </c>
-      <c r="BO5" t="str">
+      <c r="CD5" t="str">
         <v>7.0140</v>
       </c>
-      <c r="BP5" t="str">
+      <c r="CE5" t="str">
         <v>6.9870</v>
       </c>
-      <c r="BQ5" t="str">
+      <c r="CF5" t="str">
         <v>7.1330</v>
       </c>
-      <c r="BR5" t="str">
+      <c r="CG5" t="str">
         <v>7.2270</v>
       </c>
-      <c r="BS5" t="str">
+      <c r="CH5" t="str">
         <v>7.3190</v>
       </c>
-      <c r="BT5" t="str">
+      <c r="CI5" t="str">
         <v>7.6010</v>
       </c>
-      <c r="BU5" t="str">
+      <c r="CJ5" t="str">
         <v>7.6430</v>
       </c>
-      <c r="BV5" t="str">
+      <c r="CK5" t="str">
         <v>7.6070</v>
       </c>
-      <c r="BW5" t="str">
+      <c r="CL5" t="str">
         <v>7.4990</v>
       </c>
-      <c r="BX5" t="str">
+      <c r="CM5" t="str">
         <v>7.9210</v>
       </c>
-      <c r="BY5" t="str">
+      <c r="CN5" t="str">
         <v>7.8190</v>
       </c>
-      <c r="BZ5" t="str">
+      <c r="CO5" t="str">
         <v>8.0850</v>
       </c>
-      <c r="CA5" t="str">
+      <c r="CP5" t="str">
         <v>7.3690</v>
       </c>
-      <c r="CB5" t="str">
+      <c r="CQ5" t="str">
         <v>7.3370</v>
       </c>
-      <c r="CC5" t="str">
+      <c r="CR5" t="str">
         <v>7.0910</v>
       </c>
-      <c r="CD5" t="str">
+      <c r="CS5" t="str">
         <v>7.1740</v>
       </c>
-      <c r="CE5" t="str">
+      <c r="CT5" t="str">
         <v>7.3500</v>
       </c>
-      <c r="CF5" t="str">
+      <c r="CU5" t="str">
         <v>7.2890</v>
       </c>
-      <c r="CG5" t="str">
+      <c r="CV5" t="str">
         <v>7.3260</v>
       </c>
-      <c r="CH5" t="str">
+      <c r="CW5" t="str">
         <v>7.0960</v>
       </c>
-      <c r="CI5" t="str">
+      <c r="CX5" t="str">
         <v>7.0600</v>
       </c>
-      <c r="CJ5" t="str">
+      <c r="CY5" t="str">
         <v>7.2730</v>
       </c>
-      <c r="CK5" t="str">
+      <c r="CZ5" t="str">
         <v>7.4370</v>
       </c>
-      <c r="CL5" t="str">
+      <c r="DA5" t="str">
         <v>7.4120</v>
       </c>
-      <c r="CM5" t="str">
+      <c r="DB5" t="str">
         <v>7.3350</v>
       </c>
-      <c r="CN5" t="str">
+      <c r="DC5" t="str">
         <v>7.5300</v>
       </c>
-      <c r="CO5" t="str">
+      <c r="DD5" t="str">
         <v>7.3380</v>
       </c>
-      <c r="CP5" t="str">
+      <c r="DE5" t="str">
         <v>7.3330</v>
       </c>
-      <c r="CQ5" t="str">
+      <c r="DF5" t="str">
         <v>7.4420</v>
       </c>
-      <c r="CR5" t="str">
+      <c r="DG5" t="str">
         <v>7.9180</v>
       </c>
-      <c r="CS5" t="str">
+      <c r="DH5" t="str">
         <v>7.7620</v>
       </c>
-      <c r="CT5" t="str">
+      <c r="DI5" t="str">
         <v>8.1350</v>
       </c>
-      <c r="CU5" t="str">
+      <c r="DJ5" t="str">
         <v>8.2000</v>
       </c>
-      <c r="CV5" t="str">
+      <c r="DK5" t="str">
         <v>8.1320</v>
       </c>
-      <c r="CW5" t="str">
+      <c r="DL5" t="str">
         <v>8.5300</v>
       </c>
-      <c r="CX5" t="str">
+      <c r="DM5" t="str">
         <v>8.1460</v>
       </c>
-      <c r="CY5" t="str">
+      <c r="DN5" t="str">
         <v>8.1960</v>
       </c>
-      <c r="CZ5" t="str">
+      <c r="DO5" t="str">
         <v>8.3100</v>
       </c>
-      <c r="DA5" t="str">
+      <c r="DP5" t="str">
         <v>8.3760</v>
       </c>
-      <c r="DB5" t="str">
+      <c r="DQ5" t="str">
         <v>8.3720</v>
       </c>
-      <c r="DC5" t="str">
+      <c r="DR5" t="str">
         <v>7.8010</v>
       </c>
-      <c r="DD5" t="str">
+      <c r="DS5" t="str">
         <v>7.0880</v>
       </c>
-      <c r="DE5" t="str">
+      <c r="DT5" t="str">
         <v>6.8780</v>
       </c>
-      <c r="DF5" t="str">
+      <c r="DU5" t="str">
         <v>6.9180</v>
       </c>
-      <c r="DG5" t="str">
+      <c r="DV5" t="str">
         <v>6.9330</v>
       </c>
-      <c r="DH5" t="str">
+      <c r="DW5" t="str">
         <v>7.2280</v>
       </c>
-      <c r="DI5" t="str">
+      <c r="DX5" t="str">
         <v>7.4950</v>
       </c>
-      <c r="DJ5" t="str">
+      <c r="DY5" t="str">
         <v>7.4930</v>
       </c>
-      <c r="DK5" t="str">
+      <c r="DZ5" t="str">
         <v>7.5580</v>
       </c>
-      <c r="DL5" t="str">
+      <c r="EA5" t="str">
         <v>7.5930</v>
       </c>
-      <c r="DM5" t="str">
+      <c r="EB5" t="str">
         <v>7.0320</v>
       </c>
-      <c r="DN5" t="str">
+      <c r="EC5" t="str">
         <v>6.9110</v>
       </c>
-      <c r="DO5" t="str">
+      <c r="ED5" t="str">
         <v>7.3760</v>
       </c>
-      <c r="DP5" t="str">
+      <c r="EE5" t="str">
         <v>7.3660</v>
       </c>
-      <c r="DQ5" t="str">
+      <c r="EF5" t="str">
         <v>7.1520</v>
       </c>
-      <c r="DR5" t="str">
+      <c r="EG5" t="str">
         <v>6.8190</v>
       </c>
-      <c r="DS5" t="str">
+      <c r="EH5" t="str">
         <v>7.0220</v>
       </c>
-      <c r="DT5" t="str">
+      <c r="EI5" t="str">
         <v>7.0090</v>
       </c>
-      <c r="DU5" t="str">
+      <c r="EJ5" t="str">
         <v>7.2040</v>
       </c>
-      <c r="DV5" t="str">
+      <c r="EK5" t="str">
         <v>7.3240</v>
       </c>
-      <c r="DW5" t="str">
+      <c r="EL5" t="str">
         <v>7.3160</v>
       </c>
-      <c r="DX5" t="str">
+      <c r="EM5" t="str">
         <v>7.2730</v>
       </c>
-      <c r="DY5" t="str">
+      <c r="EN5" t="str">
         <v>7.2760</v>
       </c>
-      <c r="DZ5" t="str">
+      <c r="EO5" t="str">
         <v>7.5100</v>
       </c>
-      <c r="EA5" t="str">
+      <c r="EP5" t="str">
         <v>7.7500</v>
       </c>
-      <c r="EB5" t="str">
+      <c r="EQ5" t="str">
         <v>7.8280</v>
       </c>
-      <c r="EC5" t="str">
+      <c r="ER5" t="str">
         <v>7.5240</v>
       </c>
-      <c r="ED5" t="str">
+      <c r="ES5" t="str">
         <v>7.4210</v>
       </c>
-      <c r="EE5" t="str">
+      <c r="ET5" t="str">
         <v>7.2970</v>
       </c>
-      <c r="EF5" t="str">
+      <c r="EU5" t="str">
         <v>7.3260</v>
       </c>
-      <c r="EG5" t="str">
+      <c r="EV5" t="str">
         <v>7.7330</v>
       </c>
-      <c r="EH5" t="str">
+      <c r="EW5" t="str">
         <v>7.8390</v>
       </c>
-      <c r="EI5" t="str">
+      <c r="EX5" t="str">
         <v>7.7250</v>
       </c>
-      <c r="EJ5" t="str">
+      <c r="EY5" t="str">
         <v>7.5790</v>
       </c>
-      <c r="EK5" t="str">
+      <c r="EZ5" t="str">
         <v>7.3700</v>
       </c>
-      <c r="EL5" t="str">
+      <c r="FA5" t="str">
         <v>7.3410</v>
       </c>
-      <c r="EM5" t="str">
+      <c r="FB5" t="str">
         <v>7.3140</v>
       </c>
-      <c r="EN5" t="str">
+      <c r="FC5" t="str">
         <v>7.3970</v>
       </c>
-      <c r="EO5" t="str">
+      <c r="FD5" t="str">
         <v>7.7910</v>
       </c>
-      <c r="EP5" t="str">
+      <c r="FE5" t="str">
         <v>7.8150</v>
       </c>
-      <c r="EQ5" t="str">
+      <c r="FF5" t="str">
         <v>8.0250</v>
       </c>
-      <c r="ER5" t="str">
+      <c r="FG5" t="str">
         <v>7.7940</v>
       </c>
-      <c r="ES5" t="str">
+      <c r="FH5" t="str">
         <v>7.7250</v>
       </c>
-      <c r="ET5" t="str">
+      <c r="FI5" t="str">
         <v>7.7250</v>
       </c>
-      <c r="EU5" t="str">
+      <c r="FJ5" t="str">
         <v>8.0070</v>
       </c>
-      <c r="EV5" t="str">
+      <c r="FK5" t="str">
         <v>8.2320</v>
       </c>
-      <c r="EW5" t="str">
+      <c r="FL5" t="str">
         <v>8.5770</v>
       </c>
-      <c r="EX5" t="str">
+      <c r="FM5" t="str">
         <v>8.7370</v>
       </c>
-      <c r="EY5" t="str">
+      <c r="FN5" t="str">
         <v>8.9090</v>
       </c>
-      <c r="EZ5" t="str">
+      <c r="FO5" t="str">
         <v>8.9630</v>
       </c>
-      <c r="FA5" t="str">
+      <c r="FP5" t="str">
         <v>9.0000</v>
       </c>
-      <c r="FB5" t="str">
+      <c r="FQ5" t="str">
         <v>9.0290</v>
       </c>
-      <c r="FC5" t="str">
+      <c r="FR5" t="str">
         <v>8.8390</v>
       </c>
-      <c r="FD5" t="str">
+      <c r="FS5" t="str">
         <v>8.6830</v>
       </c>
-      <c r="FE5" t="str">
+      <c r="FT5" t="str">
         <v>8.8640</v>
       </c>
-      <c r="FF5" t="str">
+      <c r="FU5" t="str">
         <v>8.9860</v>
       </c>
-      <c r="FG5" t="str">
+      <c r="FV5" t="str">
         <v>8.2540</v>
       </c>
-      <c r="FH5" t="str">
+      <c r="FW5" t="str">
         <v>8.2540</v>
       </c>
-      <c r="FI5" t="str">
+      <c r="FX5" t="str">
         <v>8.4860</v>
       </c>
-      <c r="FJ5" t="str">
+      <c r="FY5" t="str">
         <v>8.2030</v>
       </c>
-      <c r="FK5" t="str">
+      <c r="FZ5" t="str">
         <v>8.0070</v>
       </c>
-      <c r="FL5" t="str">
+      <c r="GA5" t="str">
         <v>8.0900</v>
       </c>
-      <c r="FM5" t="str">
+      <c r="GB5" t="str">
         <v>7.9550</v>
       </c>
-      <c r="FN5" t="str">
+      <c r="GC5" t="str">
         <v>7.8960</v>
       </c>
-      <c r="FO5" t="str">
+      <c r="GD5" t="str">
         <v>7.9860</v>
       </c>
-      <c r="FP5" t="str">
+      <c r="GE5" t="str">
         <v>7.8210</v>
       </c>
-      <c r="FQ5" t="str">
+      <c r="GF5" t="str">
         <v>7.6670</v>
       </c>
-      <c r="FR5" t="str">
+      <c r="GG5" t="str">
         <v>7.5290</v>
       </c>
-      <c r="FS5" t="str">
+      <c r="GH5" t="str">
         <v>7.6820</v>
       </c>
-      <c r="FT5" t="str">
+      <c r="GI5" t="str">
         <v>7.8210</v>
       </c>
-      <c r="FU5" t="str">
+      <c r="GJ5" t="str">
         <v>7.9910</v>
       </c>
-      <c r="FV5" t="str">
+      <c r="GK5" t="str">
         <v>8.2790</v>
       </c>
-      <c r="FW5" t="str">
+      <c r="GL5" t="str">
         <v>8.2860</v>
       </c>
-      <c r="FX5" t="str">
+      <c r="GM5" t="str">
         <v>8.3330</v>
       </c>
-      <c r="FY5" t="str">
+      <c r="GN5" t="str">
         <v>8.5240</v>
       </c>
-      <c r="FZ5" t="str">
+      <c r="GO5" t="str">
         <v>8.6790</v>
       </c>
-      <c r="GA5" t="str">
+      <c r="GP5" t="str">
         <v>8.6230</v>
       </c>
-      <c r="GB5" t="str">
+      <c r="GQ5" t="str">
         <v>8.5180</v>
       </c>
-      <c r="GC5" t="str">
+      <c r="GR5" t="str">
         <v>8.6210</v>
       </c>
-      <c r="GD5" t="str">
+      <c r="GS5" t="str">
         <v>8.5340</v>
       </c>
-      <c r="GE5" t="str">
+      <c r="GT5" t="str">
         <v>8.3710</v>
       </c>
-      <c r="GF5" t="str">
+      <c r="GU5" t="str">
         <v>8.5110</v>
       </c>
-      <c r="GG5" t="str">
+      <c r="GV5" t="str">
         <v>8.5310</v>
       </c>
-      <c r="GH5" t="str">
+      <c r="GW5" t="str">
         <v>8.5860</v>
       </c>
-      <c r="GI5" t="str">
+      <c r="GX5" t="str">
         <v>8.8920</v>
       </c>
-      <c r="GJ5" t="str">
+      <c r="GY5" t="str">
         <v>8.7990</v>
       </c>
-      <c r="GK5" t="str">
+      <c r="GZ5" t="str">
         <v>8.4850</v>
       </c>
-      <c r="GL5" t="str">
+      <c r="HA5" t="str">
         <v>8.4100</v>
       </c>
-      <c r="GM5" t="str">
+      <c r="HB5" t="str">
         <v>8.6610</v>
       </c>
-      <c r="GN5" t="str">
+      <c r="HC5" t="str">
         <v>8.6240</v>
       </c>
-      <c r="GO5" t="str">
+      <c r="HD5" t="str">
         <v>8.3160</v>
       </c>
-      <c r="GP5" t="str">
+      <c r="HE5" t="str">
         <v>8.2460</v>
       </c>
-      <c r="GQ5" t="str">
+      <c r="HF5" t="str">
         <v>8.3560</v>
       </c>
-      <c r="GR5" t="str">
+      <c r="HG5" t="str">
         <v>8.3650</v>
       </c>
-      <c r="GS5" t="str">
+      <c r="HH5" t="str">
         <v>8.3610</v>
       </c>
-      <c r="GT5" t="str">
+      <c r="HI5" t="str">
         <v>8.1290</v>
       </c>
-      <c r="GU5" t="str">
+      <c r="HJ5" t="str">
         <v>7.7580</v>
       </c>
-      <c r="GV5" t="str">
+      <c r="HK5" t="str">
         <v>7.9060</v>
       </c>
-      <c r="GW5" t="str">
+      <c r="HL5" t="str">
         <v>7.6280</v>
       </c>
-      <c r="GX5" t="str">
+      <c r="HM5" t="str">
         <v>7.7450</v>
       </c>
-      <c r="GY5" t="str">
+      <c r="HN5" t="str">
         <v>7.7770</v>
       </c>
-      <c r="GZ5" t="str">
+      <c r="HO5" t="str">
         <v>7.7050</v>
       </c>
-      <c r="HA5" t="str">
+      <c r="HP5" t="str">
         <v>7.8730</v>
       </c>
-      <c r="HB5" t="str">
+      <c r="HQ5" t="str">
         <v>7.2810</v>
       </c>
-      <c r="HC5" t="str">
+      <c r="HR5" t="str">
         <v>7.3670</v>
       </c>
-      <c r="HD5" t="str">
+      <c r="HS5" t="str">
         <v>7.5680</v>
       </c>
-      <c r="HE5" t="str">
+      <c r="HT5" t="str">
         <v>7.8380</v>
       </c>
-      <c r="HF5" t="str">
+      <c r="HU5" t="str">
         <v>7.8660</v>
       </c>
-      <c r="HG5" t="str">
+      <c r="HV5" t="str">
         <v>8.2120</v>
       </c>
-      <c r="HH5" t="str">
+      <c r="HW5" t="str">
         <v>8.1430</v>
       </c>
-      <c r="HI5" t="str">
+      <c r="HX5" t="str">
         <v>8.1620</v>
       </c>
-      <c r="HJ5" t="str">
+      <c r="HY5" t="str">
         <v>8.2800</v>
       </c>
-      <c r="HK5" t="str">
+      <c r="HZ5" t="str">
         <v>8.1600</v>
       </c>
-      <c r="HL5" t="str">
+      <c r="IA5" t="str">
         <v>5.8110</v>
       </c>
-      <c r="HM5" t="str">
+      <c r="IB5" t="str">
         <v>5.7720</v>
       </c>
-      <c r="HN5" t="str">
+      <c r="IC5" t="str">
         <v>5.9190</v>
       </c>
-      <c r="HO5" t="str">
+      <c r="ID5" t="str">
         <v>6.0050</v>
       </c>
-      <c r="HP5" t="str">
+      <c r="IE5" t="str">
         <v>5.9690</v>
       </c>
-      <c r="HQ5" t="str">
+      <c r="IF5" t="str">
         <v>6.1630</v>
       </c>
-      <c r="HR5" t="str">
+      <c r="IG5" t="str">
         <v>6.2330</v>
       </c>
-      <c r="HS5" t="str">
+      <c r="IH5" t="str">
         <v>6.3330</v>
       </c>
-      <c r="HT5" t="str">
+      <c r="II5" t="str">
         <v>6.3000</v>
       </c>
-      <c r="HU5" t="str">
+      <c r="IJ5" t="str">
         <v>6.4020</v>
       </c>
-      <c r="HV5" t="str">
+      <c r="IK5" t="str">
         <v>6.3390</v>
       </c>
-      <c r="HW5" t="str">
+      <c r="IL5" t="str">
         <v>6.3730</v>
       </c>
-      <c r="HX5" t="str">
+      <c r="IM5" t="str">
         <v>6.5050</v>
       </c>
-      <c r="HY5" t="str">
+      <c r="IN5" t="str">
         <v>6.4420</v>
       </c>
-      <c r="HZ5" t="str">
+      <c r="IO5" t="str">
         <v>6.7120</v>
       </c>
-      <c r="IA5" t="str">
+      <c r="IP5" t="str">
         <v>6.4310</v>
       </c>
-      <c r="IB5" t="str">
+      <c r="IQ5" t="str">
         <v>6.2370</v>
       </c>
-      <c r="IC5" t="str">
+      <c r="IR5" t="str">
         <v>6.1440</v>
       </c>
-      <c r="ID5" t="str">
+      <c r="IS5" t="str">
         <v>6.2630</v>
       </c>
-      <c r="IE5" t="str">
+      <c r="IT5" t="str">
         <v>6.4650</v>
       </c>
-      <c r="IF5" t="str">
+      <c r="IU5" t="str">
         <v>6.9740</v>
       </c>
-      <c r="IG5" t="str">
+      <c r="IV5" t="str">
         <v>6.6490</v>
       </c>
-      <c r="IH5" t="str">
+      <c r="IW5" t="str">
         <v>7.0730</v>
       </c>
-      <c r="II5" t="str">
+      <c r="IX5" t="str">
         <v>6.9540</v>
       </c>
-      <c r="IJ5" t="str">
+      <c r="IY5" t="str">
         <v>7.0450</v>
       </c>
-      <c r="IK5" t="str">
+      <c r="IZ5" t="str">
         <v>5.6080</v>
       </c>
-      <c r="IL5" t="str">
+      <c r="JA5" t="str">
         <v>5.6700</v>
       </c>
-      <c r="IM5" t="str">
+      <c r="JB5" t="str">
         <v>5.7310</v>
       </c>
-      <c r="IN5" t="str">
+      <c r="JC5" t="str">
         <v>5.9000</v>
       </c>
-      <c r="IO5" t="str">
+      <c r="JD5" t="str">
         <v>5.9710</v>
       </c>
-      <c r="IP5" t="str">
+      <c r="JE5" t="str">
         <v>5.7600</v>
       </c>
-      <c r="IQ5" t="str">
+      <c r="JF5" t="str">
         <v>5.5210</v>
       </c>
-      <c r="IR5" t="str">
+      <c r="JG5" t="str">
         <v>5.4080</v>
       </c>
-      <c r="IS5" t="str">
+      <c r="JH5" t="str">
         <v>5.4070</v>
       </c>
-      <c r="IT5" t="str">
+      <c r="JI5" t="str">
         <v>5.7470</v>
       </c>
-      <c r="IU5" t="str">
+      <c r="JJ5" t="str">
         <v>5.7680</v>
       </c>
-      <c r="IV5" t="str">
+      <c r="JK5" t="str">
         <v>6.2200</v>
       </c>
-      <c r="IW5" t="str">
+      <c r="JL5" t="str">
         <v>6.2640</v>
       </c>
-      <c r="IX5" t="str">
+      <c r="JM5" t="str">
         <v>6.0410</v>
       </c>
-      <c r="IY5" t="str">
+      <c r="JN5" t="str">
         <v>6.0410</v>
       </c>
-      <c r="IZ5" t="str">
+      <c r="JO5" t="str">
         <v>5.8960</v>
       </c>
-      <c r="JA5" t="str">
+      <c r="JP5" t="str">
         <v>5.8180</v>
       </c>
-      <c r="JB5" t="str">
+      <c r="JQ5" t="str">
         <v>5.6680</v>
       </c>
-      <c r="JC5" t="str">
+      <c r="JR5" t="str">
         <v>5.8210</v>
       </c>
-      <c r="JD5" t="str">
+      <c r="JS5" t="str">
         <v>5.6320</v>
       </c>
-      <c r="JE5" t="str">
+      <c r="JT5" t="str">
         <v>6.0940</v>
       </c>
-      <c r="JF5" t="str">
+      <c r="JU5" t="str">
         <v>5.9820</v>
       </c>
-      <c r="JG5" t="str">
+      <c r="JV5" t="str">
         <v>5.9820</v>
       </c>
-      <c r="JH5" t="str">
+      <c r="JW5" t="str">
         <v>6.4280</v>
       </c>
-      <c r="JI5" t="str">
+      <c r="JX5" t="str">
         <v>6.5490</v>
       </c>
-      <c r="JJ5" t="str">
+      <c r="JY5" t="str">
         <v>6.9360</v>
       </c>
-      <c r="JK5" t="str">
+      <c r="JZ5" t="str">
         <v>5.4630</v>
       </c>
-      <c r="JL5" t="str">
+      <c r="KA5" t="str">
         <v>6.1190</v>
       </c>
-      <c r="JM5" t="str">
+      <c r="KB5" t="str">
         <v>6.0640</v>
       </c>
-      <c r="JN5" t="str">
+      <c r="KC5" t="str">
         <v>6.1600</v>
       </c>
-      <c r="JO5" t="str">
+      <c r="KD5" t="str">
         <v>6.2110</v>
       </c>
-      <c r="JP5" t="str">
+      <c r="KE5" t="str">
         <v>5.6710</v>
       </c>
-      <c r="JQ5" t="str">
+      <c r="KF5" t="str">
         <v>5.9600</v>
       </c>
-      <c r="JR5" t="str">
+      <c r="KG5" t="str">
         <v>5.8970</v>
       </c>
-      <c r="JS5" t="str">
+      <c r="KH5" t="str">
         <v>5.7830</v>
       </c>
-      <c r="JT5" t="str">
+      <c r="KI5" t="str">
         <v>5.8920</v>
       </c>
-      <c r="JU5" t="str">
+      <c r="KJ5" t="str">
         <v>6.2740</v>
       </c>
-      <c r="JV5" t="str">
+      <c r="KK5" t="str">
         <v>6.4030</v>
       </c>
-      <c r="JW5" t="str">
+      <c r="KL5" t="str">
         <v>6.4310</v>
       </c>
-      <c r="JX5" t="str">
+      <c r="KM5" t="str">
         <v>6.5700</v>
       </c>
-      <c r="JY5" t="str">
+      <c r="KN5" t="str">
         <v>6.5430</v>
       </c>
-      <c r="JZ5" t="str">
+      <c r="KO5" t="str">
         <v>6.0190</v>
       </c>
-      <c r="KA5" t="str">
+      <c r="KP5" t="str">
         <v>5.8890</v>
       </c>
-      <c r="KB5" t="str">
+      <c r="KQ5" t="str">
         <v>6.0330</v>
       </c>
-      <c r="KC5" t="str">
+      <c r="KR5" t="str">
         <v>5.8570</v>
       </c>
-      <c r="KD5" t="str">
+      <c r="KS5" t="str">
         <v>5.7290</v>
       </c>
-      <c r="KE5" t="str">
+      <c r="KT5" t="str">
         <v>5.6510</v>
       </c>
-      <c r="KF5" t="str">
+      <c r="KU5" t="str">
         <v>5.4610</v>
       </c>
-      <c r="KG5" t="str">
+      <c r="KV5" t="str">
         <v>5.6580</v>
       </c>
-      <c r="KH5" t="str">
+      <c r="KW5" t="str">
         <v>5.3990</v>
       </c>
-      <c r="KI5" t="str">
+      <c r="KX5" t="str">
         <v>5.3170</v>
       </c>
-      <c r="KJ5" t="str">
+      <c r="KY5" t="str">
         <v>5.1420</v>
       </c>
-      <c r="KK5" t="str">
+      <c r="KZ5" t="str">
         <v>2.8330</v>
       </c>
-      <c r="KL5" t="str">
+      <c r="LA5" t="str">
         <v>2.9180</v>
       </c>
-      <c r="KM5" t="str">
+      <c r="LB5" t="str">
         <v>2.9430</v>
       </c>
-      <c r="KN5" t="str">
+      <c r="LC5" t="str">
         <v>3.1000</v>
       </c>
-      <c r="KO5" t="str">
+      <c r="LD5" t="str">
         <v>3.0050</v>
       </c>
-      <c r="KP5" t="str">
+      <c r="LE5" t="str">
         <v>3.0680</v>
       </c>
-      <c r="KQ5" t="str">
+      <c r="LF5" t="str">
         <v>3.0080</v>
       </c>
-      <c r="KR5" t="str">
+      <c r="LG5" t="str">
         <v>3.1120</v>
       </c>
-      <c r="KS5" t="str">
+      <c r="LH5" t="str">
         <v>3.0940</v>
       </c>
-      <c r="KT5" t="str">
+      <c r="LI5" t="str">
         <v>3.1790</v>
       </c>
-      <c r="KU5" t="str">
+      <c r="LJ5" t="str">
         <v>3.1050</v>
       </c>
-      <c r="KV5" t="str">
+      <c r="LK5" t="str">
         <v>3.0430</v>
       </c>
-      <c r="KW5" t="str">
+      <c r="LL5" t="str">
         <v>3.0150</v>
       </c>
-      <c r="KX5" t="str">
+      <c r="LM5" t="str">
         <v>3.0300</v>
       </c>
-      <c r="KY5" t="str">
+      <c r="LN5" t="str">
         <v>2.8910</v>
       </c>
-      <c r="KZ5" t="str">
+      <c r="LO5" t="str">
         <v>2.7130</v>
       </c>
-      <c r="LA5" t="str">
+      <c r="LP5" t="str">
         <v>2.6500</v>
       </c>
-      <c r="LB5" t="str">
+      <c r="LQ5" t="str">
         <v>2.7670</v>
       </c>
-      <c r="LC5" t="str">
+      <c r="LR5" t="str">
         <v>2.4850</v>
       </c>
-      <c r="LD5" t="str">
+      <c r="LS5" t="str">
         <v>2.4180</v>
       </c>
-      <c r="LE5" t="str">
+      <c r="LT5" t="str">
         <v>2.6030</v>
       </c>
-      <c r="LF5" t="str">
+      <c r="LU5" t="str">
         <v>2.7440</v>
       </c>
-      <c r="LG5" t="str">
+      <c r="LV5" t="str">
         <v>2.7000</v>
       </c>
-      <c r="LH5" t="str">
+      <c r="LW5" t="str">
         <v>2.7840</v>
       </c>
-      <c r="LI5" t="str">
+      <c r="LX5" t="str">
         <v>2.7920</v>
       </c>
-      <c r="LJ5" t="str">
+      <c r="LY5" t="str">
         <v>15.3010</v>
       </c>
-      <c r="LK5" t="str">
+      <c r="LZ5" t="str">
         <v>16.0000</v>
       </c>
-      <c r="LL5" t="str">
+      <c r="MA5" t="str">
         <v>15.1750</v>
       </c>
-      <c r="LM5" t="str">
+      <c r="MB5" t="str">
         <v>15.9180</v>
       </c>
-      <c r="LN5" t="str">
+      <c r="MC5" t="str">
         <v>15.8520</v>
       </c>
-      <c r="LO5" t="str">
+      <c r="MD5" t="str">
         <v>14.8180</v>
       </c>
-      <c r="LP5" t="str">
+      <c r="ME5" t="str">
         <v>16.6380</v>
       </c>
-      <c r="LQ5" t="str">
+      <c r="MF5" t="str">
         <v>17.7060</v>
       </c>
-      <c r="LR5" t="str">
+      <c r="MG5" t="str">
         <v>18.2510</v>
       </c>
-      <c r="LS5" t="str">
+      <c r="MH5" t="str">
         <v>19.3000</v>
       </c>
-      <c r="LT5" t="str">
+      <c r="MI5" t="str">
         <v>20.0000</v>
       </c>
-      <c r="LU5" t="str">
+      <c r="MJ5" t="str">
         <v>20.6970</v>
       </c>
-      <c r="LV5" t="str">
+      <c r="MK5" t="str">
         <v>21.6250</v>
       </c>
-      <c r="LW5" t="str">
+      <c r="ML5" t="str">
         <v>22.7730</v>
       </c>
-      <c r="LX5" t="str">
+      <c r="MM5" t="str">
         <v>23.8270</v>
       </c>
-      <c r="LY5" t="str">
+      <c r="MN5" t="str">
         <v>22.7730</v>
       </c>
-      <c r="LZ5" t="str">
+      <c r="MO5" t="str">
         <v>21.6850</v>
       </c>
-      <c r="MA5" t="str">
+      <c r="MP5" t="str">
         <v>27.3760</v>
       </c>
-      <c r="MB5" t="str">
+      <c r="MQ5" t="str">
         <v>18.3370</v>
       </c>
-      <c r="MC5" t="str">
+      <c r="MR5" t="str">
         <v>16.6020</v>
       </c>
-      <c r="MD5" t="str">
+      <c r="MS5" t="str">
         <v>12.7600</v>
       </c>
-      <c r="ME5" t="str">
+      <c r="MT5" t="str">
         <v>11.5220</v>
       </c>
-      <c r="MF5" t="str">
+      <c r="MU5" t="str">
         <v>11.5740</v>
       </c>
-      <c r="MG5" t="str">
+      <c r="MV5" t="str">
         <v>11.1400</v>
       </c>
-      <c r="MH5" t="str">
+      <c r="MW5" t="str">
         <v>10.0920</v>
       </c>
-      <c r="MI5" t="str">
+      <c r="MX5" t="str">
         <v>9.9360</v>
       </c>
-      <c r="MJ5" t="str">
+      <c r="MY5" t="str">
         <v>9.8340</v>
       </c>
-      <c r="MK5" t="str">
+      <c r="MZ5" t="str">
         <v>9.5800</v>
       </c>
-      <c r="ML5" t="str">
+      <c r="NA5" t="str">
         <v>9.6750</v>
       </c>
-      <c r="MM5" t="str">
+      <c r="NB5" t="str">
         <v>9.4630</v>
       </c>
-      <c r="MN5" t="str">
+      <c r="NC5" t="str">
         <v>9.6630</v>
       </c>
-      <c r="MO5" t="str">
+      <c r="ND5" t="str">
         <v>9.4630</v>
       </c>
-      <c r="MP5" t="str">
+      <c r="NE5" t="str">
         <v>9.3370</v>
       </c>
-      <c r="MQ5" t="str">
+      <c r="NF5" t="str">
         <v>9.1500</v>
       </c>
-      <c r="MR5" t="str">
+      <c r="NG5" t="str">
         <v>8.7670</v>
       </c>
-      <c r="MS5" t="str">
+      <c r="NH5" t="str">
         <v>8.7370</v>
       </c>
-      <c r="MT5" t="str">
+      <c r="NI5" t="str">
         <v>8.8980</v>
       </c>
-      <c r="MU5" t="str">
+      <c r="NJ5" t="str">
         <v>8.7970</v>
       </c>
-      <c r="MV5" t="str">
+      <c r="NK5" t="str">
         <v>8.9080</v>
       </c>
-      <c r="MW5" t="str">
+      <c r="NL5" t="str">
         <v>9.1180</v>
       </c>
-      <c r="MX5" t="str">
+      <c r="NM5" t="str">
         <v>9.0430</v>
       </c>
-      <c r="MY5" t="str">
+      <c r="NN5" t="str">
         <v>9.0010</v>
       </c>
-      <c r="MZ5" t="str">
+      <c r="NO5" t="str">
         <v>9.0120</v>
       </c>
-      <c r="NA5" t="str">
+      <c r="NP5" t="str">
         <v>9.0860</v>
       </c>
-      <c r="NB5" t="str">
+      <c r="NQ5" t="str">
         <v>9.5330</v>
       </c>
-      <c r="NC5" t="str">
+      <c r="NR5" t="str">
         <v>9.4740</v>
       </c>
-      <c r="ND5" t="str">
+      <c r="NS5" t="str">
         <v>10.0000</v>
       </c>
-      <c r="NE5" t="str">
+      <c r="NT5" t="str">
         <v>10.0520</v>
       </c>
-      <c r="NF5" t="str">
+      <c r="NU5" t="str">
         <v>9.8350</v>
       </c>
-      <c r="NG5" t="str">
+      <c r="NV5" t="str">
         <v>9.8350</v>
       </c>
-      <c r="NH5" t="str">
+      <c r="NW5" t="str">
         <v>9.7240</v>
       </c>
-      <c r="NI5" t="str">
+      <c r="NX5" t="str">
         <v>10.0130</v>
       </c>
-      <c r="NJ5" t="str">
+      <c r="NY5" t="str">
         <v>9.6630</v>
       </c>
-      <c r="NK5" t="str">
+      <c r="NZ5" t="str">
         <v>9.6110</v>
       </c>
-      <c r="NL5" t="str">
+      <c r="OA5" t="str">
         <v>9.3580</v>
       </c>
-      <c r="NM5" t="str">
+      <c r="OB5" t="str">
         <v>9.2040</v>
       </c>
-      <c r="NN5" t="str">
+      <c r="OC5" t="str">
         <v>9.0650</v>
       </c>
-      <c r="NO5" t="str">
+      <c r="OD5" t="str">
         <v>9.1390</v>
       </c>
-      <c r="NP5" t="str">
+      <c r="OE5" t="str">
         <v>9.0440</v>
       </c>
-      <c r="NQ5" t="str">
+      <c r="OF5" t="str">
         <v>9.0130</v>
       </c>
-      <c r="NR5" t="str">
+      <c r="OG5" t="str">
         <v>8.9820</v>
       </c>
-      <c r="NS5" t="str">
+      <c r="OH5" t="str">
         <v>8.9720</v>
       </c>
-      <c r="NT5" t="str">
+      <c r="OI5" t="str">
         <v>8.8700</v>
       </c>
-      <c r="NU5" t="str">
+      <c r="OJ5" t="str">
         <v>8.9100</v>
       </c>
-      <c r="NV5" t="str">
+      <c r="OK5" t="str">
         <v>8.6440</v>
       </c>
-      <c r="NW5" t="str">
+      <c r="OL5" t="str">
         <v>8.6830</v>
       </c>
-      <c r="NX5" t="str">
+      <c r="OM5" t="str">
         <v>8.5780</v>
       </c>
-      <c r="NY5" t="str">
+      <c r="ON5" t="str">
         <v>8.4940</v>
       </c>
-      <c r="NZ5" t="str">
+      <c r="OO5" t="str">
         <v>8.2870</v>
       </c>
-      <c r="OA5" t="str">
+      <c r="OP5" t="str">
         <v>8.2790</v>
       </c>
-      <c r="OB5" t="str">
+      <c r="OQ5" t="str">
         <v>8.3490</v>
       </c>
-      <c r="OC5" t="str">
+      <c r="OR5" t="str">
         <v>8.4760</v>
       </c>
-      <c r="OD5" t="str">
+      <c r="OS5" t="str">
         <v>8.6730</v>
       </c>
-      <c r="OE5" t="str">
+      <c r="OT5" t="str">
         <v>8.6250</v>
       </c>
-      <c r="OF5" t="str">
+      <c r="OU5" t="str">
         <v>8.6060</v>
       </c>
-      <c r="OG5" t="str">
+      <c r="OV5" t="str">
         <v>8.6920</v>
       </c>
-      <c r="OH5" t="str">
+      <c r="OW5" t="str">
         <v>8.8600</v>
       </c>
-      <c r="OI5" t="str">
+      <c r="OX5" t="str">
         <v>8.5220</v>
       </c>
-      <c r="OJ5" t="str">
+      <c r="OY5" t="str">
         <v>8.7220</v>
       </c>
-      <c r="OK5" t="str">
+      <c r="OZ5" t="str">
         <v>8.7900</v>
       </c>
-      <c r="OL5" t="str">
+      <c r="PA5" t="str">
         <v>8.6540</v>
       </c>
-      <c r="OM5" t="str">
+      <c r="PB5" t="str">
         <v>8.6480</v>
       </c>
-      <c r="ON5" t="str">
+      <c r="PC5" t="str">
         <v>8.3050</v>
       </c>
-      <c r="OO5" t="str">
+      <c r="PD5" t="str">
         <v>8.0940</v>
       </c>
-      <c r="OP5" t="str">
+      <c r="PE5" t="str">
         <v>7.9640</v>
       </c>
-      <c r="OQ5" t="str">
+      <c r="PF5" t="str">
         <v>7.8620</v>
       </c>
-      <c r="OR5" t="str">
+      <c r="PG5" t="str">
         <v>7.9720</v>
       </c>
-      <c r="OS5" t="str">
+      <c r="PH5" t="str">
         <v>7.9010</v>
       </c>
-      <c r="OT5" t="str">
+      <c r="PI5" t="str">
         <v>7.8620</v>
       </c>
-      <c r="OU5" t="str">
+      <c r="PJ5" t="str">
         <v>7.8930</v>
       </c>
-      <c r="OV5" t="str">
+      <c r="PK5" t="str">
         <v>7.9160</v>
       </c>
-      <c r="OW5" t="str">
+      <c r="PL5" t="str">
         <v>8.0440</v>
       </c>
-      <c r="OX5" t="str">
+      <c r="PM5" t="str">
         <v>8.0770</v>
       </c>
-      <c r="OY5" t="str">
+      <c r="PN5" t="str">
         <v>8.1600</v>
       </c>
-      <c r="OZ5" t="str">
+      <c r="PO5" t="str">
         <v>8.1600</v>
       </c>
-      <c r="PA5" t="str">
+      <c r="PP5" t="str">
         <v>8.2020</v>
       </c>
-      <c r="PB5" t="str">
+      <c r="PQ5" t="str">
         <v>8.1770</v>
       </c>
-      <c r="PC5" t="str">
+      <c r="PR5" t="str">
         <v>8.1680</v>
       </c>
-      <c r="PD5" t="str">
+      <c r="PS5" t="str">
         <v>8.1600</v>
       </c>
-      <c r="PE5" t="str">
+      <c r="PT5" t="str">
         <v>8.1770</v>
       </c>
-      <c r="PF5" t="str">
+      <c r="PU5" t="str">
         <v>8.2530</v>
       </c>
-      <c r="PG5" t="str">
+      <c r="PV5" t="str">
         <v>8.1520</v>
       </c>
-      <c r="PH5" t="str">
+      <c r="PW5" t="str">
         <v>8.0610</v>
       </c>
-      <c r="PI5" t="str">
+      <c r="PX5" t="str">
         <v>7.9320</v>
       </c>
-      <c r="PJ5" t="str">
+      <c r="PY5" t="str">
         <v>7.9560</v>
       </c>
-      <c r="PK5" t="str">
+      <c r="PZ5" t="str">
         <v>7.9640</v>
       </c>
-      <c r="PL5" t="str">
+      <c r="QA5" t="str">
         <v>8.0280</v>
       </c>
-      <c r="PM5" t="str">
+      <c r="QB5" t="str">
         <v>8.0920</v>
       </c>
-      <c r="PN5" t="str">
+      <c r="QC5" t="str">
         <v>8.0760</v>
       </c>
-      <c r="PO5" t="str">
+      <c r="QD5" t="str">
         <v>8.0350</v>
       </c>
-      <c r="PP5" t="str">
+      <c r="QE5" t="str">
         <v>8.0270</v>
       </c>
-      <c r="PQ5" t="str">
+      <c r="QF5" t="str">
         <v>8.0030</v>
       </c>
-      <c r="PR5" t="str">
+      <c r="QG5" t="str">
         <v>8.0430</v>
       </c>
-      <c r="PS5" t="str">
+      <c r="QH5" t="str">
         <v>8.0110</v>
       </c>
-      <c r="PT5" t="str">
+      <c r="QI5" t="str">
         <v>7.8850</v>
       </c>
-      <c r="PU5" t="str">
+      <c r="QJ5" t="str">
         <v>7.9790</v>
       </c>
-      <c r="PV5" t="str">
+      <c r="QK5" t="str">
         <v>7.8770</v>
       </c>
-      <c r="PW5" t="str">
+      <c r="QL5" t="str">
         <v>7.8850</v>
       </c>
-      <c r="PX5" t="str">
+      <c r="QM5" t="str">
         <v>7.9710</v>
       </c>
-      <c r="PY5" t="str">
+      <c r="QN5" t="str">
         <v>8.0430</v>
       </c>
-      <c r="PZ5" t="str">
+      <c r="QO5" t="str">
         <v>7.9470</v>
       </c>
-      <c r="QA5" t="str">
+      <c r="QP5" t="str">
         <v>7.9160</v>
       </c>
-      <c r="QB5" t="str">
+      <c r="QQ5" t="str">
         <v>8.0840</v>
       </c>
-      <c r="QC5" t="str">
+      <c r="QR5" t="str">
         <v>8.0840</v>
       </c>
-      <c r="QD5" t="str">
+      <c r="QS5" t="str">
         <v>8.1920</v>
       </c>
-      <c r="QE5" t="str">
+      <c r="QT5" t="str">
         <v>8.2850</v>
       </c>
-      <c r="QF5" t="str">
+      <c r="QU5" t="str">
         <v>8.1790</v>
       </c>
-      <c r="QG5" t="str">
+      <c r="QV5" t="str">
         <v>8.1920</v>
       </c>
-      <c r="QH5" t="str">
+      <c r="QW5" t="str">
         <v>8.1250</v>
       </c>
-      <c r="QI5" t="str">
+      <c r="QX5" t="str">
         <v>8.1790</v>
       </c>
-      <c r="QJ5" t="str">
+      <c r="QY5" t="str">
         <v>8.1790</v>
       </c>
-      <c r="QK5" t="str">
+      <c r="QZ5" t="str">
         <v>8.1790</v>
       </c>
-      <c r="QL5" t="str">
+      <c r="RA5" t="str">
         <v>8.4250</v>
       </c>
-      <c r="QM5" t="str">
+      <c r="RB5" t="str">
         <v>8.2040</v>
       </c>
-      <c r="QN5" t="str">
+      <c r="RC5" t="str">
         <v>8.1790</v>
       </c>
-      <c r="QO5" t="str">
+      <c r="RD5" t="str">
         <v>8.1630</v>
       </c>
-      <c r="QP5" t="str">
+      <c r="RE5" t="str">
         <v>8.3130</v>
       </c>
-      <c r="QQ5" t="str">
+      <c r="RF5" t="str">
         <v>8.4520</v>
       </c>
-      <c r="QR5" t="str">
+      <c r="RG5" t="str">
         <v>8.5220</v>
       </c>
-      <c r="QS5" t="str">
+      <c r="RH5" t="str">
         <v>8.5220</v>
       </c>
-      <c r="QT5" t="str">
+      <c r="RI5" t="str">
         <v>8.4520</v>
       </c>
-      <c r="QU5" t="str">
+      <c r="RJ5" t="str">
         <v>8.2040</v>
       </c>
-      <c r="QV5" t="str">
+      <c r="RK5" t="str">
         <v>8.6130</v>
       </c>
-      <c r="QW5" t="str">
+      <c r="RL5" t="str">
         <v>9.1460</v>
       </c>
-      <c r="QX5" t="str">
+      <c r="RM5" t="str">
         <v>9.4100</v>
       </c>
-      <c r="QY5" t="str">
+      <c r="RN5" t="str">
         <v>9.2710</v>
       </c>
-      <c r="QZ5" t="str">
+      <c r="RO5" t="str">
         <v>9.3240</v>
       </c>
-      <c r="RA5" t="str">
+      <c r="RP5" t="str">
         <v>8.9350</v>
       </c>
-      <c r="RB5" t="str">
+      <c r="RQ5" t="str">
         <v>8.5580</v>
       </c>
-      <c r="RC5" t="str">
+      <c r="RR5" t="str">
         <v>8.6130</v>
       </c>
-      <c r="RD5" t="str">
+      <c r="RS5" t="str">
         <v>8.5950</v>
       </c>
-      <c r="RE5" t="str">
+      <c r="RT5" t="str">
         <v>8.5050</v>
       </c>
-      <c r="RF5" t="str">
+      <c r="RU5" t="str">
         <v>8.5140</v>
       </c>
-      <c r="RG5" t="str">
+      <c r="RV5" t="str">
         <v>8.5310</v>
       </c>
-      <c r="RH5" t="str">
+      <c r="RW5" t="str">
         <v>8.4780</v>
       </c>
-      <c r="RI5" t="str">
+      <c r="RX5" t="str">
         <v>8.4780</v>
       </c>
-      <c r="RJ5" t="str">
+      <c r="RY5" t="str">
         <v>8.3730</v>
       </c>
-      <c r="RK5" t="str">
+      <c r="RZ5" t="str">
         <v>8.5140</v>
       </c>
-      <c r="RL5" t="str">
+      <c r="SA5" t="str">
         <v>8.1880</v>
       </c>
-      <c r="RM5" t="str">
+      <c r="SB5" t="str">
         <v>8.0880</v>
       </c>
-      <c r="RN5" t="str">
+      <c r="SC5" t="str">
         <v>8.4100</v>
       </c>
-      <c r="RO5" t="str">
+      <c r="SD5" t="str">
         <v>8.4010</v>
       </c>
-      <c r="RP5" t="str">
+      <c r="SE5" t="str">
         <v>8.4180</v>
       </c>
-      <c r="RQ5" t="str">
+      <c r="SF5" t="str">
         <v>8.2830</v>
       </c>
-      <c r="RR5" t="str">
+      <c r="SG5" t="str">
         <v>7.8570</v>
       </c>
-      <c r="RS5" t="str">
+      <c r="SH5" t="str">
         <v>7.8200</v>
       </c>
-      <c r="RT5" t="str">
+      <c r="SI5" t="str">
         <v>7.8120</v>
       </c>
-      <c r="RU5" t="str">
+      <c r="SJ5" t="str">
         <v>7.6960</v>
       </c>
-      <c r="RV5" t="str">
+      <c r="SK5" t="str">
         <v>7.6250</v>
       </c>
-      <c r="RW5" t="str">
+      <c r="SL5" t="str">
         <v>7.5830</v>
       </c>
-      <c r="RX5" t="str">
+      <c r="SM5" t="str">
         <v>7.7250</v>
       </c>
-      <c r="RY5" t="str">
+      <c r="SN5" t="str">
         <v>7.8350</v>
       </c>
-      <c r="RZ5" t="str">
+      <c r="SO5" t="str">
         <v>7.6180</v>
       </c>
-      <c r="SA5" t="str">
+      <c r="SP5" t="str">
         <v>7.6530</v>
       </c>
-      <c r="SB5" t="str">
+      <c r="SQ5" t="str">
         <v>7.5690</v>
       </c>
-      <c r="SC5" t="str">
+      <c r="SR5" t="str">
         <v>7.5210</v>
       </c>
-      <c r="SD5" t="str">
+      <c r="SS5" t="str">
         <v>7.5900</v>
       </c>
-      <c r="SE5" t="str">
+      <c r="ST5" t="str">
         <v>7.5140</v>
       </c>
-      <c r="SF5" t="str">
+      <c r="SU5" t="str">
         <v>7.6040</v>
       </c>
-      <c r="SG5" t="str">
+      <c r="SV5" t="str">
         <v>7.4120</v>
       </c>
-      <c r="SH5" t="str">
+      <c r="SW5" t="str">
         <v>7.3920</v>
       </c>
-      <c r="SI5" t="str">
+      <c r="SX5" t="str">
         <v>7.3730</v>
       </c>
-      <c r="SJ5" t="str">
+      <c r="SY5" t="str">
         <v>7.4320</v>
       </c>
-      <c r="SK5" t="str">
+      <c r="SZ5" t="str">
         <v>7.5690</v>
       </c>
-      <c r="SL5" t="str">
+      <c r="TA5" t="str">
         <v>7.4120</v>
       </c>
-      <c r="SM5" t="str">
+      <c r="TB5" t="str">
         <v>7.3430</v>
       </c>
-      <c r="SN5" t="str">
+      <c r="TC5" t="str">
         <v>7.4410</v>
       </c>
-      <c r="SO5" t="str">
+      <c r="TD5" t="str">
         <v>7.6390</v>
       </c>
-      <c r="SP5" t="str">
+      <c r="TE5" t="str">
         <v>7.8250</v>
       </c>
-      <c r="SQ5" t="str">
+      <c r="TF5" t="str">
         <v>7.7450</v>
       </c>
-      <c r="SR5" t="str">
+      <c r="TG5" t="str">
         <v>7.9450</v>
       </c>
-      <c r="SS5" t="str">
+      <c r="TH5" t="str">
         <v>8.0440</v>
       </c>
-      <c r="ST5" t="str">
+      <c r="TI5" t="str">
         <v>8.0680</v>
       </c>
-      <c r="SU5" t="str">
+      <c r="TJ5" t="str">
         <v>8.2030</v>
       </c>
-      <c r="SV5" t="str">
+      <c r="TK5" t="str">
         <v>8.1630</v>
       </c>
-      <c r="SW5" t="str">
+      <c r="TL5" t="str">
         <v>8.2760</v>
       </c>
-      <c r="SX5" t="str">
+      <c r="TM5" t="str">
         <v>8.2510</v>
       </c>
-      <c r="SY5" t="str">
+      <c r="TN5" t="str">
         <v>8.2510</v>
       </c>
-      <c r="SZ5" t="str">
+      <c r="TO5" t="str">
         <v>8.0370</v>
       </c>
-      <c r="TA5" t="str">
+      <c r="TP5" t="str">
         <v>8.0520</v>
       </c>
-      <c r="TB5" t="str">
+      <c r="TQ5" t="str">
         <v>8.1790</v>
       </c>
-      <c r="TC5" t="str">
+      <c r="TR5" t="str">
         <v>7.9300</v>
       </c>
-      <c r="TD5" t="str">
+      <c r="TS5" t="str">
         <v>7.9600</v>
       </c>
-      <c r="TE5" t="str">
+      <c r="TT5" t="str">
         <v>7.9600</v>
       </c>
-      <c r="TF5" t="str">
+      <c r="TU5" t="str">
         <v>8.0130</v>
       </c>
-      <c r="TG5" t="str">
+      <c r="TV5" t="str">
         <v>8.0830</v>
       </c>
-      <c r="TH5" t="str">
+      <c r="TW5" t="str">
         <v>8.2350</v>
       </c>
-      <c r="TI5" t="str">
+      <c r="TX5" t="str">
         <v>8.0210</v>
       </c>
-      <c r="TJ5" t="str">
+      <c r="TY5" t="str">
         <v>8.0210</v>
       </c>
-      <c r="TK5" t="str">
+      <c r="TZ5" t="str">
         <v>8.0680</v>
       </c>
-      <c r="TL5" t="str">
+      <c r="UA5" t="str">
         <v>8.2840</v>
       </c>
-      <c r="TM5" t="str">
+      <c r="UB5" t="str">
         <v>8.2050</v>
       </c>
-      <c r="TN5" t="str">
+      <c r="UC5" t="str">
         <v>8.3760</v>
       </c>
-      <c r="TO5" t="str">
+      <c r="UD5" t="str">
         <v>8.3760</v>
       </c>
-      <c r="TP5" t="str">
+      <c r="UE5" t="str">
         <v>8.3430</v>
       </c>
-      <c r="TQ5" t="str">
+      <c r="UF5" t="str">
         <v>8.3100</v>
       </c>
-      <c r="TR5" t="str">
+      <c r="UG5" t="str">
         <v>8.4010</v>
       </c>
-      <c r="TS5" t="str">
+      <c r="UH5" t="str">
         <v>8.2530</v>
       </c>
-      <c r="TT5" t="str">
+      <c r="UI5" t="str">
         <v>8.6870</v>
       </c>
-      <c r="TU5" t="str">
+      <c r="UJ5" t="str">
         <v>8.6250</v>
       </c>
-      <c r="TV5" t="str">
+      <c r="UK5" t="str">
         <v>9.0030</v>
       </c>
-      <c r="TW5" t="str">
+      <c r="UL5" t="str">
         <v>9.0030</v>
       </c>
-      <c r="TX5" t="str">
+      <c r="UM5" t="str">
         <v>8.9840</v>
       </c>
-      <c r="TY5" t="str">
+      <c r="UN5" t="str">
         <v>9.1010</v>
       </c>
-      <c r="TZ5" t="str">
+      <c r="UO5" t="str">
         <v>9.0420</v>
       </c>
-      <c r="UA5" t="str">
+      <c r="UP5" t="str">
         <v>8.7410</v>
       </c>
-      <c r="UB5" t="str">
+      <c r="UQ5" t="str">
         <v>8.5120</v>
       </c>
-      <c r="UC5" t="str">
+      <c r="UR5" t="str">
         <v>7.6790</v>
       </c>
-      <c r="UD5" t="str">
+      <c r="US5" t="str">
         <v>7.7310</v>
       </c>
-      <c r="UE5" t="str">
+      <c r="UT5" t="str">
         <v>7.6350</v>
       </c>
-      <c r="UF5" t="str">
+      <c r="UU5" t="str">
         <v>7.7120</v>
       </c>
-      <c r="UG5" t="str">
+      <c r="UV5" t="str">
         <v>7.6920</v>
       </c>
-      <c r="UH5" t="str">
+      <c r="UW5" t="str">
         <v>8.0210</v>
       </c>
-      <c r="UI5" t="str">
+      <c r="UX5" t="str">
         <v>7.9450</v>
       </c>
-      <c r="UJ5" t="str">
+      <c r="UY5" t="str">
         <v>7.7700</v>
       </c>
-      <c r="UK5" t="str">
+      <c r="UZ5" t="str">
         <v>7.7050</v>
       </c>
-      <c r="UL5" t="str">
+      <c r="VA5" t="str">
         <v>7.5470</v>
       </c>
-      <c r="UM5" t="str">
+      <c r="VB5" t="str">
         <v>7.5100</v>
       </c>
-      <c r="UN5" t="str">
+      <c r="VC5" t="str">
         <v>7.5160</v>
       </c>
-      <c r="UO5" t="str">
+      <c r="VD5" t="str">
         <v>7.5960</v>
       </c>
-      <c r="UP5" t="str">
+      <c r="VE5" t="str">
         <v>7.5000</v>
       </c>
-      <c r="UQ5" t="str">
+      <c r="VF5" t="str">
         <v>7.5240</v>
       </c>
-      <c r="UR5" t="str">
+      <c r="VG5" t="str">
         <v>7.4880</v>
       </c>
-      <c r="US5" t="str">
+      <c r="VH5" t="str">
         <v>7.3940</v>
       </c>
-      <c r="UT5" t="str">
+      <c r="VI5" t="str">
         <v>7.4350</v>
       </c>
-      <c r="UU5" t="str">
+      <c r="VJ5" t="str">
         <v>7.5300</v>
       </c>
-      <c r="UV5" t="str">
+      <c r="VK5" t="str">
         <v>7.5000</v>
       </c>
-      <c r="UW5" t="str">
+      <c r="VL5" t="str">
         <v>7.4530</v>
       </c>
-      <c r="UX5" t="str">
+      <c r="VM5" t="str">
         <v>7.2860</v>
       </c>
-      <c r="UY5" t="str">
+      <c r="VN5" t="str">
         <v>7.3710</v>
       </c>
-      <c r="UZ5" t="str">
+      <c r="VO5" t="str">
         <v>7.2800</v>
       </c>
-      <c r="VA5" t="str">
+      <c r="VP5" t="str">
         <v>7.2470</v>
       </c>
-      <c r="VB5" t="str">
+      <c r="VQ5" t="str">
         <v>7.6670</v>
       </c>
-      <c r="VC5" t="str">
+      <c r="VR5" t="str">
         <v>7.7430</v>
       </c>
-      <c r="VD5" t="str">
+      <c r="VS5" t="str">
         <v>8.0240</v>
       </c>
-      <c r="VE5" t="str">
+      <c r="VT5" t="str">
         <v>7.9920</v>
       </c>
-      <c r="VF5" t="str">
+      <c r="VU5" t="str">
         <v>7.9550</v>
       </c>
-      <c r="VG5" t="str">
+      <c r="VV5" t="str">
         <v>8.0870</v>
       </c>
-      <c r="VH5" t="str">
+      <c r="VW5" t="str">
         <v>8.0110</v>
       </c>
-      <c r="VI5" t="str">
+      <c r="VX5" t="str">
         <v>8.2110</v>
       </c>
-      <c r="VJ5" t="str">
+      <c r="VY5" t="str">
         <v>8.3320</v>
       </c>
-      <c r="VK5" t="str">
+      <c r="VZ5" t="str">
         <v>8.3520</v>
       </c>
-      <c r="VL5" t="str">
+      <c r="WA5" t="str">
         <v>8.3320</v>
       </c>
-      <c r="VM5" t="str">
+      <c r="WB5" t="str">
         <v>8.2980</v>
       </c>
-      <c r="VN5" t="str">
+      <c r="WC5" t="str">
         <v>8.4630</v>
       </c>
-      <c r="VO5" t="str">
+      <c r="WD5" t="str">
         <v>9.0890</v>
       </c>
-      <c r="VP5" t="str">
+      <c r="WE5" t="str">
         <v>8.6660</v>
       </c>
-      <c r="VQ5" t="str">
+      <c r="WF5" t="str">
         <v>8.5150</v>
       </c>
-      <c r="VR5" t="str">
+      <c r="WG5" t="str">
         <v>8.6170</v>
       </c>
-      <c r="VS5" t="str">
+      <c r="WH5" t="str">
         <v>8.6310</v>
       </c>
-      <c r="VT5" t="str">
+      <c r="WI5" t="str">
         <v>8.4950</v>
       </c>
-      <c r="VU5" t="str">
+      <c r="WJ5" t="str">
         <v>8.5690</v>
       </c>
-      <c r="VV5" t="str">
+      <c r="WK5" t="str">
         <v>8.8940</v>
       </c>
-      <c r="VW5" t="str">
+      <c r="WL5" t="str">
         <v>8.6030</v>
       </c>
-      <c r="VX5" t="str">
+      <c r="WM5" t="str">
         <v>8.5490</v>
       </c>
-      <c r="VY5" t="str">
+      <c r="WN5" t="str">
         <v>8.5960</v>
       </c>
-      <c r="VZ5" t="str">
+      <c r="WO5" t="str">
         <v>8.4820</v>
       </c>
-      <c r="WA5" t="str">
+      <c r="WP5" t="str">
         <v>8.4950</v>
       </c>
-      <c r="WB5" t="str">
+      <c r="WQ5" t="str">
         <v>8.8590</v>
       </c>
-      <c r="WC5" t="str">
+      <c r="WR5" t="str">
         <v>8.8620</v>
       </c>
-      <c r="WD5" t="str">
+      <c r="WS5" t="str">
         <v>8.8070</v>
       </c>
-      <c r="WE5" t="str">
+      <c r="WT5" t="str">
         <v>8.8280</v>
       </c>
-      <c r="WF5" t="str">
+      <c r="WU5" t="str">
         <v>8.9390</v>
       </c>
-      <c r="WG5" t="str">
+      <c r="WV5" t="str">
         <v>8.9110</v>
       </c>
-      <c r="WH5" t="str">
+      <c r="WW5" t="str">
         <v>9.0020</v>
       </c>
-      <c r="WI5" t="str">
+      <c r="WX5" t="str">
         <v>9.1030</v>
       </c>
-      <c r="WJ5" t="str">
+      <c r="WY5" t="str">
         <v>9.0530</v>
       </c>
-      <c r="WK5" t="str">
+      <c r="WZ5" t="str">
         <v>9.0310</v>
       </c>
-      <c r="WL5" t="str">
+      <c r="XA5" t="str">
         <v>9.3040</v>
       </c>
-      <c r="WM5" t="str">
+      <c r="XB5" t="str">
         <v>9.1550</v>
       </c>
-      <c r="WN5" t="str">
+      <c r="XC5" t="str">
         <v>9.5550</v>
       </c>
-      <c r="WO5" t="str">
+      <c r="XD5" t="str">
         <v>9.8800</v>
       </c>
-      <c r="WP5" t="str">
+      <c r="XE5" t="str">
         <v>9.7670</v>
       </c>
-      <c r="WQ5" t="str">
+      <c r="XF5" t="str">
         <v>9.7670</v>
       </c>
-      <c r="WR5" t="str">
+      <c r="XG5" t="str">
         <v>10.8020</v>
       </c>
-      <c r="WS5" t="str">
+      <c r="XH5" t="str">
         <v>10.9500</v>
       </c>
-      <c r="WT5" t="str">
+      <c r="XI5" t="str">
         <v>11.2500</v>
       </c>
-      <c r="WU5" t="str">
+      <c r="XJ5" t="str">
         <v>11.3900</v>
       </c>
-      <c r="WV5" t="str">
+      <c r="XK5" t="str">
         <v>10.7240</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:WV5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:XK5"/>
   </ignoredErrors>
 </worksheet>
 </file>